--- a/OMSI_data.xlsx
+++ b/OMSI_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dis006\Documents\GitHub\OMS_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\Code\Github\OMS_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556359B8-CB1E-4E37-809F-317DF599D7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D3205A-D382-4747-BDB9-EA67CEB3F022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="630" windowWidth="25395" windowHeight="14670" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rawOMS" sheetId="1" r:id="rId1"/>
@@ -2724,7 +2724,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -2750,6 +2750,7 @@
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3111,12 +3112,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -3252,7 +3253,7 @@
         <v>4.7962208587690201E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -3320,7 +3321,7 @@
         <v>3.05985146500245E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>7.3615838188699503E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>2.5753637246026799E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>1.25091904237149E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -3592,7 +3593,7 @@
         <v>1.2492002601327599E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>0.176180987315293</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>5.0393102972302803E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>0.13993092593350301</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>1.1551626034206199E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>0.26110150702378099</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>6.1043888459203798E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -4068,7 +4069,7 @@
         <v>0.19729185288503601</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>3.6571105956903799E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -4204,7 +4205,7 @@
         <v>0.102377793190148</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>4.3064755159579998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -4340,7 +4341,7 @@
         <v>8.0587455132629202E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -4408,7 +4409,7 @@
         <v>0.15447265920051401</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>0.14209852414874299</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>5.55582449092498E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -4612,7 +4613,7 @@
         <v>0.38327388520608402</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -4680,7 +4681,7 @@
         <v>4.3403698213408601E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -4748,7 +4749,7 @@
         <v>2.4505175816367498E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -4816,7 +4817,7 @@
         <v>0.13123591404016999</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -4884,7 +4885,7 @@
         <v>9.2171338788167995E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -4952,7 +4953,7 @@
         <v>1.9564595727307899E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -5020,7 +5021,7 @@
         <v>8.2394931553881598E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -5088,7 +5089,7 @@
         <v>3.9162371875584003E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>2.2402841841586901E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>2.6488928714072001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -5292,7 +5293,7 @@
         <v>8.2988341532715601E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>9.9351476670458003E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -5428,7 +5429,7 @@
         <v>0.24863812294270901</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -5496,7 +5497,7 @@
         <v>0.29028431234497698</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>5.6489819504060998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -5632,7 +5633,7 @@
         <v>0.1449628636045</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -5700,7 +5701,7 @@
         <v>8.2943385032074601E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -5768,7 +5769,7 @@
         <v>2.0371168943142701E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -5836,7 +5837,7 @@
         <v>0.16212964477327499</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -5904,7 +5905,7 @@
         <v>0.17414903827400599</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -5972,7 +5973,7 @@
         <v>0.10096755453954601</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -6040,7 +6041,7 @@
         <v>0.28265993515439802</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -6108,7 +6109,7 @@
         <v>0.218974484202551</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>0.13599829910379199</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>0.321216627163045</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>8.4289046490141503E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -6380,7 +6381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -6448,7 +6449,7 @@
         <v>0.11111111111111099</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -6516,7 +6517,7 @@
         <v>0.26116561416414003</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -6584,7 +6585,7 @@
         <v>6.8460340749594895E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>0.22914312949993801</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -6720,7 +6721,7 @@
         <v>1.35700597852176E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -6788,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -6856,7 +6857,7 @@
         <v>1.8221189344479902E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -6924,7 +6925,7 @@
         <v>8.04953307320702E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>5.6124351523611303E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -7060,7 +7061,7 @@
         <v>4.5843038670738398E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>110</v>
       </c>
@@ -7128,7 +7129,7 @@
         <v>3.0472357615289401E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>110</v>
       </c>
@@ -7196,7 +7197,7 @@
         <v>4.86140182711002E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -7264,7 +7265,7 @@
         <v>4.2780199090906801E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -7332,7 +7333,7 @@
         <v>0.12743829446415</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -7400,7 +7401,7 @@
         <v>1.3158252080174199E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -7468,7 +7469,7 @@
         <v>0.16151389399689001</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -7536,7 +7537,7 @@
         <v>1.44299821985827E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>118</v>
       </c>
@@ -7604,7 +7605,7 @@
         <v>1.0831226094844101E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -7672,7 +7673,7 @@
         <v>2.0811028104600501E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -7740,7 +7741,7 @@
         <v>4.5514026574520902E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -7808,7 +7809,7 @@
         <v>2.1249292855373601E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>122</v>
       </c>
@@ -7876,7 +7877,7 @@
         <v>0.22187340128008301</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -7944,7 +7945,7 @@
         <v>0.15453830283523701</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>127</v>
       </c>
@@ -8012,7 +8013,7 @@
         <v>0.108032019255677</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>127</v>
       </c>
@@ -8080,7 +8081,7 @@
         <v>0.131673025789628</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>131</v>
       </c>
@@ -8148,7 +8149,7 @@
         <v>0.30125875800596402</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>131</v>
       </c>
@@ -8216,7 +8217,7 @@
         <v>0.16917766179614099</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>131</v>
       </c>
@@ -8284,7 +8285,7 @@
         <v>8.5237486496960696E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>136</v>
       </c>
@@ -8352,7 +8353,7 @@
         <v>0.31500251598670898</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>136</v>
       </c>
@@ -8420,7 +8421,7 @@
         <v>0.28017093104644702</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>136</v>
       </c>
@@ -8488,7 +8489,7 @@
         <v>0.488665367449438</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>140</v>
       </c>
@@ -8556,7 +8557,7 @@
         <v>0.11006579601786599</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>140</v>
       </c>
@@ -8624,7 +8625,7 @@
         <v>3.3097359488571801E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>140</v>
       </c>
@@ -8692,7 +8693,7 @@
         <v>4.9940044039927703E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>145</v>
       </c>
@@ -8760,7 +8761,7 @@
         <v>0.14147631985752501</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -8828,7 +8829,7 @@
         <v>5.6879628669308901E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -8896,7 +8897,7 @@
         <v>7.7668747718338496E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>149</v>
       </c>
@@ -8964,7 +8965,7 @@
         <v>0.78075332693020005</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>149</v>
       </c>
@@ -9032,7 +9033,7 @@
         <v>0.178088265775141</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>149</v>
       </c>
@@ -9100,7 +9101,7 @@
         <v>0.70483387532189101</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>154</v>
       </c>
@@ -9168,7 +9169,7 @@
         <v>6.9321333573945307E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>154</v>
       </c>
@@ -9236,7 +9237,7 @@
         <v>8.6938520378101805E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>157</v>
       </c>
@@ -9304,7 +9305,7 @@
         <v>8.2853219931615998E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>157</v>
       </c>
@@ -9372,7 +9373,7 @@
         <v>8.8126175444588506E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>157</v>
       </c>
@@ -9440,7 +9441,7 @@
         <v>0.117131082885962</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>162</v>
       </c>
@@ -9508,7 +9509,7 @@
         <v>7.0396544316620305E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>162</v>
       </c>
@@ -9576,7 +9577,7 @@
         <v>2.52073800382927E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>162</v>
       </c>
@@ -9644,7 +9645,7 @@
         <v>0.106412937090442</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>167</v>
       </c>
@@ -9712,7 +9713,7 @@
         <v>8.2593712570782504E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>167</v>
       </c>
@@ -9780,7 +9781,7 @@
         <v>3.1209824653673699E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>167</v>
       </c>
@@ -9848,7 +9849,7 @@
         <v>5.9536541844848703E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>171</v>
       </c>
@@ -9916,7 +9917,7 @@
         <v>0.209787251436898</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>171</v>
       </c>
@@ -9984,7 +9985,7 @@
         <v>5.5937569063618901E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>171</v>
       </c>
@@ -10052,7 +10053,7 @@
         <v>0.105939458264709</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>175</v>
       </c>
@@ -10120,7 +10121,7 @@
         <v>9.5154254977541194E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>175</v>
       </c>
@@ -10188,7 +10189,7 @@
         <v>3.1384626812593901E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>175</v>
       </c>
@@ -10256,7 +10257,7 @@
         <v>4.6991103757540599E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>180</v>
       </c>
@@ -10324,7 +10325,7 @@
         <v>0.215390054515574</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>180</v>
       </c>
@@ -10392,7 +10393,7 @@
         <v>8.2169313109359404E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>180</v>
       </c>
@@ -10460,7 +10461,7 @@
         <v>0.145036097229682</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>184</v>
       </c>
@@ -10528,7 +10529,7 @@
         <v>4.7148784681056599E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>184</v>
       </c>
@@ -10596,7 +10597,7 @@
         <v>3.09588247790803E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -10664,7 +10665,7 @@
         <v>2.8994505465589401E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>188</v>
       </c>
@@ -10732,7 +10733,7 @@
         <v>0.112372559940772</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>188</v>
       </c>
@@ -10800,7 +10801,7 @@
         <v>3.95363280572898E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>188</v>
       </c>
@@ -10868,7 +10869,7 @@
         <v>0.250669966977835</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>193</v>
       </c>
@@ -10936,7 +10937,7 @@
         <v>8.1131864642129903E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>193</v>
       </c>
@@ -11004,7 +11005,7 @@
         <v>0.167463200760464</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>193</v>
       </c>
@@ -11072,7 +11073,7 @@
         <v>6.09559901474961E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>197</v>
       </c>
@@ -11140,7 +11141,7 @@
         <v>0.17157702175417999</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>197</v>
       </c>
@@ -11208,7 +11209,7 @@
         <v>7.7341115840209598E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>197</v>
       </c>
@@ -11276,7 +11277,7 @@
         <v>0.19752266406691599</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>201</v>
       </c>
@@ -11344,7 +11345,7 @@
         <v>0.12161248695398</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>201</v>
       </c>
@@ -11412,7 +11413,7 @@
         <v>9.6150693083988006E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>201</v>
       </c>
@@ -11480,7 +11481,7 @@
         <v>0.15034586810959599</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>205</v>
       </c>
@@ -11548,7 +11549,7 @@
         <v>6.4959308733154197E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>205</v>
       </c>
@@ -11616,7 +11617,7 @@
         <v>0.19817853245400599</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>205</v>
       </c>
@@ -11684,7 +11685,7 @@
         <v>6.6360536451251007E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>210</v>
       </c>
@@ -11752,7 +11753,7 @@
         <v>0.10109363770173201</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>210</v>
       </c>
@@ -11820,7 +11821,7 @@
         <v>9.5563291563130801E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>210</v>
       </c>
@@ -11888,7 +11889,7 @@
         <v>0.10249532933123701</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>214</v>
       </c>
@@ -11956,7 +11957,7 @@
         <v>5.0723276606548601E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>214</v>
       </c>
@@ -12024,7 +12025,7 @@
         <v>0.246203031848026</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>214</v>
       </c>
@@ -12092,7 +12093,7 @@
         <v>8.7592598756534301E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>218</v>
       </c>
@@ -12160,7 +12161,7 @@
         <v>6.4898938399152797E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>218</v>
       </c>
@@ -12228,7 +12229,7 @@
         <v>9.2168956766655305E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>218</v>
       </c>
@@ -12296,7 +12297,7 @@
         <v>8.1664137330718006E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>222</v>
       </c>
@@ -12364,7 +12365,7 @@
         <v>1.3742818038991401E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>222</v>
       </c>
@@ -12432,7 +12433,7 @@
         <v>9.2633990517476603E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>222</v>
       </c>
@@ -12500,7 +12501,7 @@
         <v>0.119470671926595</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>226</v>
       </c>
@@ -12568,7 +12569,7 @@
         <v>6.5949995895345101E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>226</v>
       </c>
@@ -12636,7 +12637,7 @@
         <v>4.6372740051797201E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>226</v>
       </c>
@@ -12704,7 +12705,7 @@
         <v>0.167759477224589</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>230</v>
       </c>
@@ -12772,7 +12773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>230</v>
       </c>
@@ -12840,7 +12841,7 @@
         <v>0.30140449764695598</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>230</v>
       </c>
@@ -12908,7 +12909,7 @@
         <v>0.26435234276314801</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>235</v>
       </c>
@@ -12976,7 +12977,7 @@
         <v>0.157403729353778</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>235</v>
       </c>
@@ -13044,7 +13045,7 @@
         <v>6.7331822520808396E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>235</v>
       </c>
@@ -13112,7 +13113,7 @@
         <v>1.7444112681369101E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>239</v>
       </c>
@@ -13180,7 +13181,7 @@
         <v>3.04164961130476E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>239</v>
       </c>
@@ -13248,7 +13249,7 @@
         <v>6.8462727691371303E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>239</v>
       </c>
@@ -13316,7 +13317,7 @@
         <v>5.2104268248870898E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>243</v>
       </c>
@@ -13384,7 +13385,7 @@
         <v>0.33391611882795902</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>243</v>
       </c>
@@ -13452,7 +13453,7 @@
         <v>0.60144290078624096</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>243</v>
       </c>
@@ -13520,7 +13521,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>247</v>
       </c>
@@ -13588,7 +13589,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>247</v>
       </c>
@@ -13656,7 +13657,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>247</v>
       </c>
@@ -13724,7 +13725,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>251</v>
       </c>
@@ -13792,7 +13793,7 @@
         <v>0.110749438284114</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>251</v>
       </c>
@@ -13860,7 +13861,7 @@
         <v>5.1735658591089501E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>251</v>
       </c>
@@ -13928,7 +13929,7 @@
         <v>0.169315578886715</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>255</v>
       </c>
@@ -13996,7 +13997,7 @@
         <v>8.85333413704915E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>255</v>
       </c>
@@ -14064,7 +14065,7 @@
         <v>2.0929019008026101E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>255</v>
       </c>
@@ -14132,7 +14133,7 @@
         <v>0.14171221035122</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>259</v>
       </c>
@@ -14200,7 +14201,7 @@
         <v>0.13863090420351001</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>259</v>
       </c>
@@ -14268,7 +14269,7 @@
         <v>5.6870336854344603E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>259</v>
       </c>
@@ -14336,7 +14337,7 @@
         <v>0.31161025288335997</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>263</v>
       </c>
@@ -14404,7 +14405,7 @@
         <v>4.0983606579477798E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>263</v>
       </c>
@@ -14472,7 +14473,7 @@
         <v>1.07081773445939E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>263</v>
       </c>
@@ -14540,7 +14541,7 @@
         <v>2.6157651019470499E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>267</v>
       </c>
@@ -14608,7 +14609,7 @@
         <v>4.6543401712554701E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>267</v>
       </c>
@@ -14676,7 +14677,7 @@
         <v>2.2151019875489598E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>267</v>
       </c>
@@ -14744,7 +14745,7 @@
         <v>8.7700409595785803E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>271</v>
       </c>
@@ -14812,7 +14813,7 @@
         <v>5.6041741185554599E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>271</v>
       </c>
@@ -14880,7 +14881,7 @@
         <v>2.50760165042926E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>271</v>
       </c>
@@ -14948,7 +14949,7 @@
         <v>8.4499996350451703E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>275</v>
       </c>
@@ -15016,7 +15017,7 @@
         <v>2.5417684585856901E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>275</v>
       </c>
@@ -15084,7 +15085,7 @@
         <v>7.8170738230754794E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>275</v>
       </c>
@@ -15152,7 +15153,7 @@
         <v>0.10153232494276</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>280</v>
       </c>
@@ -15220,7 +15221,7 @@
         <v>3.27003654443783E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>280</v>
       </c>
@@ -15288,7 +15289,7 @@
         <v>2.38546853074246E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>280</v>
       </c>
@@ -15356,7 +15357,7 @@
         <v>5.1083976024459701E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>285</v>
       </c>
@@ -15424,7 +15425,7 @@
         <v>0.220948577193877</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>285</v>
       </c>
@@ -15492,7 +15493,7 @@
         <v>3.7562253730286897E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>285</v>
       </c>
@@ -15560,7 +15561,7 @@
         <v>0.44203614774306399</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>289</v>
       </c>
@@ -15628,7 +15629,7 @@
         <v>0.15235010612997299</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>289</v>
       </c>
@@ -15696,7 +15697,7 @@
         <v>1.48833370014616E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>289</v>
       </c>
@@ -15764,7 +15765,7 @@
         <v>3.8617405183742001E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>293</v>
       </c>
@@ -15832,7 +15833,7 @@
         <v>0.15596487358406799</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>293</v>
       </c>
@@ -15900,7 +15901,7 @@
         <v>3.8442080255814297E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>293</v>
       </c>
@@ -15968,7 +15969,7 @@
         <v>0.15193510981362199</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>297</v>
       </c>
@@ -16036,7 +16037,7 @@
         <v>7.2696585150270998E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>297</v>
       </c>
@@ -16104,7 +16105,7 @@
         <v>4.4087931907087798E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>297</v>
       </c>
@@ -16172,7 +16173,7 @@
         <v>7.8417453636035403E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>301</v>
       </c>
@@ -16240,7 +16241,7 @@
         <v>8.0077845621456506E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>301</v>
       </c>
@@ -16308,7 +16309,7 @@
         <v>0.28387781774910598</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>301</v>
       </c>
@@ -16376,7 +16377,7 @@
         <v>0.105245053907916</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>306</v>
       </c>
@@ -16444,7 +16445,7 @@
         <v>5.32632305763516E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>306</v>
       </c>
@@ -16512,7 +16513,7 @@
         <v>9.7646433232005406E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>306</v>
       </c>
@@ -16580,7 +16581,7 @@
         <v>4.2091974633627599E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>310</v>
       </c>
@@ -16648,7 +16649,7 @@
         <v>8.1161397977751806E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>310</v>
       </c>
@@ -16716,7 +16717,7 @@
         <v>1.13243321310796E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>310</v>
       </c>
@@ -16784,7 +16785,7 @@
         <v>6.07103524483412E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>314</v>
       </c>
@@ -16852,7 +16853,7 @@
         <v>0.39809547070738299</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>314</v>
       </c>
@@ -16920,7 +16921,7 @@
         <v>0.23999230128137899</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>314</v>
       </c>
@@ -16988,7 +16989,7 @@
         <v>0.46831479113798202</v>
       </c>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>319</v>
       </c>
@@ -17056,7 +17057,7 @@
         <v>4.5619861531980201E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>319</v>
       </c>
@@ -17124,7 +17125,7 @@
         <v>5.8761454635829102E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>319</v>
       </c>
@@ -17192,7 +17193,7 @@
         <v>0.23122268569461499</v>
       </c>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>323</v>
       </c>
@@ -17260,7 +17261,7 @@
         <v>7.1465578444172201E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>323</v>
       </c>
@@ -17328,7 +17329,7 @@
         <v>8.9247874231283705E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>323</v>
       </c>
@@ -17396,7 +17397,7 @@
         <v>4.5815366389935698E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>327</v>
       </c>
@@ -17464,7 +17465,7 @@
         <v>5.6397273930545798E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>327</v>
       </c>
@@ -17532,7 +17533,7 @@
         <v>9.9767825999484999E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>327</v>
       </c>
@@ -17600,7 +17601,7 @@
         <v>7.3139738421157605E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>331</v>
       </c>
@@ -17668,7 +17669,7 @@
         <v>6.7693817793006997E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>331</v>
       </c>
@@ -17736,7 +17737,7 @@
         <v>0.115625967836543</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>331</v>
       </c>
@@ -17804,7 +17805,7 @@
         <v>0.204102920816086</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>335</v>
       </c>
@@ -17872,7 +17873,7 @@
         <v>3.0205641868047799E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>335</v>
       </c>
@@ -17940,7 +17941,7 @@
         <v>6.8887534024399399E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>335</v>
       </c>
@@ -18008,7 +18009,7 @@
         <v>4.8443407552148703E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>339</v>
       </c>
@@ -18076,7 +18077,7 @@
         <v>7.22524475462165E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>339</v>
       </c>
@@ -18144,7 +18145,7 @@
         <v>6.7569862473021505E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>339</v>
       </c>
@@ -18212,7 +18213,7 @@
         <v>0.102413104913968</v>
       </c>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>343</v>
       </c>
@@ -18280,7 +18281,7 @@
         <v>4.1890966760239803E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>343</v>
       </c>
@@ -18348,7 +18349,7 @@
         <v>1.1727663059300701E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>343</v>
       </c>
@@ -18416,7 +18417,7 @@
         <v>3.6296875785063097E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>347</v>
       </c>
@@ -18484,7 +18485,7 @@
         <v>3.89141220628774E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>347</v>
       </c>
@@ -18552,7 +18553,7 @@
         <v>0.108160570429035</v>
       </c>
     </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>347</v>
       </c>
@@ -18620,7 +18621,7 @@
         <v>0.142840307587835</v>
       </c>
     </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>351</v>
       </c>
@@ -18688,7 +18689,7 @@
         <v>4.2151452567807897E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>351</v>
       </c>
@@ -18756,7 +18757,7 @@
         <v>6.9445034724179497E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>351</v>
       </c>
@@ -18824,7 +18825,7 @@
         <v>0.157516665794904</v>
       </c>
     </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>356</v>
       </c>
@@ -18892,7 +18893,7 @@
         <v>2.9350145058967599E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>356</v>
       </c>
@@ -18960,7 +18961,7 @@
         <v>6.6874049804856603E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>356</v>
       </c>
@@ -19028,7 +19029,7 @@
         <v>0.140650806977341</v>
       </c>
     </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>361</v>
       </c>
@@ -19096,7 +19097,7 @@
         <v>0.30172089243789701</v>
       </c>
     </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>361</v>
       </c>
@@ -19164,7 +19165,7 @@
         <v>5.60640460810874E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>361</v>
       </c>
@@ -19232,7 +19233,7 @@
         <v>0.45504695123849098</v>
       </c>
     </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>365</v>
       </c>
@@ -19300,7 +19301,7 @@
         <v>0.23034928073682701</v>
       </c>
     </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>365</v>
       </c>
@@ -19368,7 +19369,7 @@
         <v>1.81249283313441E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>365</v>
       </c>
@@ -19436,7 +19437,7 @@
         <v>0.13260238276723199</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>369</v>
       </c>
@@ -19504,7 +19505,7 @@
         <v>0.113027106560586</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>369</v>
       </c>
@@ -19572,7 +19573,7 @@
         <v>1.8734680846247801E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>369</v>
       </c>
@@ -19640,7 +19641,7 @@
         <v>0.111861266316075</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>373</v>
       </c>
@@ -19708,7 +19709,7 @@
         <v>2.48630599992486E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>373</v>
       </c>
@@ -19776,7 +19777,7 @@
         <v>1.62892130210569E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>373</v>
       </c>
@@ -19844,7 +19845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>377</v>
       </c>
@@ -19912,7 +19913,7 @@
         <v>0.345834176142371</v>
       </c>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>377</v>
       </c>
@@ -19980,7 +19981,7 @@
         <v>0.22344357593283001</v>
       </c>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>377</v>
       </c>
@@ -20048,7 +20049,7 @@
         <v>5.7500115572350997E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>381</v>
       </c>
@@ -20116,7 +20117,7 @@
         <v>0.23823558229858899</v>
       </c>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>381</v>
       </c>
@@ -20184,7 +20185,7 @@
         <v>3.9787687281627397E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>381</v>
       </c>
@@ -20252,7 +20253,7 @@
         <v>0.11468814576632699</v>
       </c>
     </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>385</v>
       </c>
@@ -20320,7 +20321,7 @@
         <v>9.1740786778969602E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>385</v>
       </c>
@@ -20388,7 +20389,7 @@
         <v>2.2740562532836298E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>385</v>
       </c>
@@ -20456,7 +20457,7 @@
         <v>7.0085919314237494E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>390</v>
       </c>
@@ -20524,7 +20525,7 @@
         <v>0.18888620506680401</v>
       </c>
     </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>390</v>
       </c>
@@ -20592,7 +20593,7 @@
         <v>0.222634861827748</v>
       </c>
     </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>390</v>
       </c>
@@ -20660,7 +20661,7 @@
         <v>0.22831362533402699</v>
       </c>
     </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>394</v>
       </c>
@@ -20728,7 +20729,7 @@
         <v>4.2368822547675697E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>394</v>
       </c>
@@ -20796,7 +20797,7 @@
         <v>1.8643311410119399E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>394</v>
       </c>
@@ -20864,7 +20865,7 @@
         <v>9.6328298239148999E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>398</v>
       </c>
@@ -20932,7 +20933,7 @@
         <v>8.8868226586473004E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>398</v>
       </c>
@@ -21000,7 +21001,7 @@
         <v>1.33930492485541E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>398</v>
       </c>
@@ -21068,7 +21069,7 @@
         <v>0.11683886740254</v>
       </c>
     </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>402</v>
       </c>
@@ -21136,7 +21137,7 @@
         <v>6.0778865192915303E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>402</v>
       </c>
@@ -21204,7 +21205,7 @@
         <v>4.8787961084692598E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>402</v>
       </c>
@@ -21272,7 +21273,7 @@
         <v>0.112233424077033</v>
       </c>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>406</v>
       </c>
@@ -21340,7 +21341,7 @@
         <v>5.21285383830895E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>406</v>
       </c>
@@ -21408,7 +21409,7 @@
         <v>5.6145153184357199E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>406</v>
       </c>
@@ -21476,7 +21477,7 @@
         <v>0.117531681802718</v>
       </c>
     </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>411</v>
       </c>
@@ -21544,7 +21545,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>411</v>
       </c>
@@ -21612,7 +21613,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>411</v>
       </c>
@@ -21680,7 +21681,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>415</v>
       </c>
@@ -21748,7 +21749,7 @@
         <v>7.5052463226545504E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>415</v>
       </c>
@@ -21816,7 +21817,7 @@
         <v>6.9259526142338703E-3</v>
       </c>
     </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>415</v>
       </c>
@@ -21884,7 +21885,7 @@
         <v>3.64032324363062E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>419</v>
       </c>
@@ -21952,7 +21953,7 @@
         <v>0.30364507478064801</v>
       </c>
     </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>419</v>
       </c>
@@ -22020,7 +22021,7 @@
         <v>3.1873389061440903E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>419</v>
       </c>
@@ -22088,7 +22089,7 @@
         <v>0.37908356589102599</v>
       </c>
     </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>423</v>
       </c>
@@ -22156,7 +22157,7 @@
         <v>1.8483863351407399E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>423</v>
       </c>
@@ -22224,7 +22225,7 @@
         <v>4.40798295418156E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>423</v>
       </c>
@@ -22292,7 +22293,7 @@
         <v>7.1278273614905005E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>427</v>
       </c>
@@ -22360,7 +22361,7 @@
         <v>7.5319057463862596E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>427</v>
       </c>
@@ -22428,7 +22429,7 @@
         <v>9.5832143894796704E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>427</v>
       </c>
@@ -22496,7 +22497,7 @@
         <v>6.9737995680840797E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>431</v>
       </c>
@@ -22564,7 +22565,7 @@
         <v>3.6655711087857097E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>431</v>
       </c>
@@ -22632,7 +22633,7 @@
         <v>6.4824628705483306E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>431</v>
       </c>
@@ -22700,7 +22701,7 @@
         <v>5.28678034574609E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>435</v>
       </c>
@@ -22768,7 +22769,7 @@
         <v>0.11242807422729</v>
       </c>
     </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>435</v>
       </c>
@@ -22836,7 +22837,7 @@
         <v>3.10918133187299E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>435</v>
       </c>
@@ -22904,7 +22905,7 @@
         <v>0.14361818684189501</v>
       </c>
     </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>439</v>
       </c>
@@ -22972,7 +22973,7 @@
         <v>0.36737526469963699</v>
       </c>
     </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>439</v>
       </c>
@@ -23040,7 +23041,7 @@
         <v>5.9690653495431303E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>439</v>
       </c>
@@ -23108,7 +23109,7 @@
         <v>8.76405695710223E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>443</v>
       </c>
@@ -23176,7 +23177,7 @@
         <v>0.23396153348593399</v>
       </c>
     </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>443</v>
       </c>
@@ -23244,7 +23245,7 @@
         <v>2.3131894962465899E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>443</v>
       </c>
@@ -23312,7 +23313,7 @@
         <v>0.105749065258072</v>
       </c>
     </row>
-    <row r="298" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>448</v>
       </c>
@@ -23380,7 +23381,7 @@
         <v>7.0228694879372597E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>448</v>
       </c>
@@ -23448,7 +23449,7 @@
         <v>6.6702301632788299E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>448</v>
       </c>
@@ -23516,7 +23517,7 @@
         <v>6.6797461501404198E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>452</v>
       </c>
@@ -23584,7 +23585,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>452</v>
       </c>
@@ -23652,7 +23653,7 @@
         <v>0.15091310559016999</v>
       </c>
     </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>452</v>
       </c>
@@ -23720,7 +23721,7 @@
         <v>0.64389111012459199</v>
       </c>
     </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>456</v>
       </c>
@@ -23788,7 +23789,7 @@
         <v>2.34544599128498E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>456</v>
       </c>
@@ -23856,7 +23857,7 @@
         <v>0.12998852569573399</v>
       </c>
     </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>456</v>
       </c>
@@ -23924,7 +23925,7 @@
         <v>8.3723258841990195E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>460</v>
       </c>
@@ -23992,7 +23993,7 @@
         <v>0.29375607067810899</v>
       </c>
     </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>460</v>
       </c>
@@ -24060,7 +24061,7 @@
         <v>0.11586360773950601</v>
       </c>
     </row>
-    <row r="309" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>460</v>
       </c>
@@ -24128,7 +24129,7 @@
         <v>8.6600038344570404E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>464</v>
       </c>
@@ -24196,7 +24197,7 @@
         <v>6.5348783366514701E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>464</v>
       </c>
@@ -24264,7 +24265,7 @@
         <v>3.4079285338441498E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>464</v>
       </c>
@@ -24332,7 +24333,7 @@
         <v>2.4903469750944599E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>468</v>
       </c>
@@ -24400,7 +24401,7 @@
         <v>0.15074213027149599</v>
       </c>
     </row>
-    <row r="314" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>468</v>
       </c>
@@ -24468,7 +24469,7 @@
         <v>3.62014876159929E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>468</v>
       </c>
@@ -24536,7 +24537,7 @@
         <v>0.257887841130017</v>
       </c>
     </row>
-    <row r="316" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>472</v>
       </c>
@@ -24604,7 +24605,7 @@
         <v>0.44826408300903098</v>
       </c>
     </row>
-    <row r="317" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>472</v>
       </c>
@@ -24672,7 +24673,7 @@
         <v>0.28199756602746601</v>
       </c>
     </row>
-    <row r="318" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>472</v>
       </c>
@@ -24740,7 +24741,7 @@
         <v>0.124830588441784</v>
       </c>
     </row>
-    <row r="319" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>476</v>
       </c>
@@ -24808,7 +24809,7 @@
         <v>0.42428898294797102</v>
       </c>
     </row>
-    <row r="320" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>476</v>
       </c>
@@ -24876,7 +24877,7 @@
         <v>4.4329920596951303E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>476</v>
       </c>
@@ -24944,7 +24945,7 @@
         <v>0.38276663380766301</v>
       </c>
     </row>
-    <row r="322" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>480</v>
       </c>
@@ -25012,7 +25013,7 @@
         <v>0.15970793958034399</v>
       </c>
     </row>
-    <row r="323" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>480</v>
       </c>
@@ -25080,7 +25081,7 @@
         <v>0.20508059925677999</v>
       </c>
     </row>
-    <row r="324" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>480</v>
       </c>
@@ -25148,7 +25149,7 @@
         <v>0.12278253618229699</v>
       </c>
     </row>
-    <row r="325" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>484</v>
       </c>
@@ -25216,7 +25217,7 @@
         <v>0.17024254455495699</v>
       </c>
     </row>
-    <row r="326" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>484</v>
       </c>
@@ -25284,7 +25285,7 @@
         <v>8.4024434705358697E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>484</v>
       </c>
@@ -25352,7 +25353,7 @@
         <v>0.25065447929233498</v>
       </c>
     </row>
-    <row r="328" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>488</v>
       </c>
@@ -25420,7 +25421,7 @@
         <v>8.3365600396559103E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>488</v>
       </c>
@@ -25488,7 +25489,7 @@
         <v>7.2761964324252098E-3</v>
       </c>
     </row>
-    <row r="330" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>488</v>
       </c>
@@ -25556,7 +25557,7 @@
         <v>6.8791475197958293E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>492</v>
       </c>
@@ -25624,7 +25625,7 @@
         <v>0.104540182635202</v>
       </c>
     </row>
-    <row r="332" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>492</v>
       </c>
@@ -25692,7 +25693,7 @@
         <v>4.8087647149458998E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>492</v>
       </c>
@@ -25760,7 +25761,7 @@
         <v>0.18271243367533299</v>
       </c>
     </row>
-    <row r="334" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>496</v>
       </c>
@@ -25828,7 +25829,7 @@
         <v>2.8332646252415501E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>496</v>
       </c>
@@ -25896,7 +25897,7 @@
         <v>8.6410009655350298E-3</v>
       </c>
     </row>
-    <row r="336" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>496</v>
       </c>
@@ -25964,7 +25965,7 @@
         <v>0.23500101149387201</v>
       </c>
     </row>
-    <row r="337" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>500</v>
       </c>
@@ -26032,7 +26033,7 @@
         <v>0.29805439993532301</v>
       </c>
     </row>
-    <row r="338" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>500</v>
       </c>
@@ -26100,7 +26101,7 @@
         <v>1.5969447415276901E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>500</v>
       </c>
@@ -26168,7 +26169,7 @@
         <v>0.17562166007431099</v>
       </c>
     </row>
-    <row r="340" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>505</v>
       </c>
@@ -26236,7 +26237,7 @@
         <v>1.6722039755935201E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>505</v>
       </c>
@@ -26304,7 +26305,7 @@
         <v>8.6662768497696094E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>505</v>
       </c>
@@ -26372,7 +26373,7 @@
         <v>0.16651284982567699</v>
       </c>
     </row>
-    <row r="343" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>509</v>
       </c>
@@ -26440,7 +26441,7 @@
         <v>0.218954915865575</v>
       </c>
     </row>
-    <row r="344" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>509</v>
       </c>
@@ -26508,7 +26509,7 @@
         <v>6.3825210750252395E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>509</v>
       </c>
@@ -26576,7 +26577,7 @@
         <v>0.29517735873775902</v>
       </c>
     </row>
-    <row r="346" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>513</v>
       </c>
@@ -26644,7 +26645,7 @@
         <v>6.8298985089828096E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>513</v>
       </c>
@@ -26712,7 +26713,7 @@
         <v>0.54128358678862698</v>
       </c>
     </row>
-    <row r="348" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>513</v>
       </c>
@@ -26780,7 +26781,7 @@
         <v>0.26878157263751001</v>
       </c>
     </row>
-    <row r="349" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>517</v>
       </c>
@@ -26848,7 +26849,7 @@
         <v>2.7832316843405602E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>517</v>
       </c>
@@ -26916,7 +26917,7 @@
         <v>0.106023913891655</v>
       </c>
     </row>
-    <row r="351" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>517</v>
       </c>
@@ -26984,7 +26985,7 @@
         <v>5.3196387471662797E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>522</v>
       </c>
@@ -27052,7 +27053,7 @@
         <v>0.392320964014642</v>
       </c>
     </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>522</v>
       </c>
@@ -27120,7 +27121,7 @@
         <v>0.35002123276077102</v>
       </c>
     </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>522</v>
       </c>
@@ -27188,7 +27189,7 @@
         <v>0.30891239567567902</v>
       </c>
     </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>526</v>
       </c>
@@ -27256,7 +27257,7 @@
         <v>0.106824279416891</v>
       </c>
     </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>526</v>
       </c>
@@ -27324,7 +27325,7 @@
         <v>0.16109524978716899</v>
       </c>
     </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>526</v>
       </c>
@@ -27392,7 +27393,7 @@
         <v>9.6176204141778701E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>530</v>
       </c>
@@ -27460,7 +27461,7 @@
         <v>8.2966686601650005E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>530</v>
       </c>
@@ -27528,7 +27529,7 @@
         <v>5.6238168078376803E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>530</v>
       </c>
@@ -27596,7 +27597,7 @@
         <v>0.206422065706833</v>
       </c>
     </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>534</v>
       </c>
@@ -27664,7 +27665,7 @@
         <v>0.13953731267077199</v>
       </c>
     </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>534</v>
       </c>
@@ -27732,7 +27733,7 @@
         <v>3.1464668859574399E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>534</v>
       </c>
@@ -27800,7 +27801,7 @@
         <v>0.27087613561495699</v>
       </c>
     </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>539</v>
       </c>
@@ -27868,7 +27869,7 @@
         <v>5.0755751950369701E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>539</v>
       </c>
@@ -27936,7 +27937,7 @@
         <v>4.6428412667926001E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>539</v>
       </c>
@@ -28004,7 +28005,7 @@
         <v>0.121177794268245</v>
       </c>
     </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>543</v>
       </c>
@@ -28072,7 +28073,7 @@
         <v>0.100814234099439</v>
       </c>
     </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>543</v>
       </c>
@@ -28140,7 +28141,7 @@
         <v>0.11288413149404899</v>
       </c>
     </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>543</v>
       </c>
@@ -28208,7 +28209,7 @@
         <v>7.7461684862630206E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>547</v>
       </c>
@@ -28276,7 +28277,7 @@
         <v>3.3145986120729498E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>547</v>
       </c>
@@ -28344,7 +28345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>547</v>
       </c>
@@ -28412,7 +28413,7 @@
         <v>7.8532670644420599E-3</v>
       </c>
     </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>552</v>
       </c>
@@ -28480,7 +28481,7 @@
         <v>1.76131390482667E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>552</v>
       </c>
@@ -28548,7 +28549,7 @@
         <v>2.48728974024677E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>555</v>
       </c>
@@ -28616,7 +28617,7 @@
         <v>4.6278391086075198E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>555</v>
       </c>
@@ -28697,13 +28698,13 @@
       <selection sqref="A1:K129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28738,7 +28739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>390</v>
       </c>
@@ -28773,7 +28774,7 @@
         <v>0.27392000697976399</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>293</v>
       </c>
@@ -28808,7 +28809,7 @@
         <v>5.6342392374268198E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>251</v>
       </c>
@@ -28843,7 +28844,7 @@
         <v>0.19664224845071701</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>365</v>
       </c>
@@ -28878,7 +28879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>255</v>
       </c>
@@ -28913,7 +28914,7 @@
         <v>9.0877218278882205E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -28948,7 +28949,7 @@
         <v>1.50569470376895E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>476</v>
       </c>
@@ -28983,7 +28984,7 @@
         <v>0.116612702598606</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>452</v>
       </c>
@@ -29018,7 +29019,7 @@
         <v>0.14741126057092199</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -29053,7 +29054,7 @@
         <v>2.7429848481859E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -29088,7 +29089,7 @@
         <v>2.0229222337692698E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>361</v>
       </c>
@@ -29123,7 +29124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>230</v>
       </c>
@@ -29158,7 +29159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>385</v>
       </c>
@@ -29193,7 +29194,7 @@
         <v>1.41465434947688E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -29228,7 +29229,7 @@
         <v>8.3775423817094893E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>496</v>
       </c>
@@ -29263,7 +29264,7 @@
         <v>9.8901572370775098E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>339</v>
       </c>
@@ -29298,7 +29299,7 @@
         <v>3.7313076342224E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>500</v>
       </c>
@@ -29333,7 +29334,7 @@
         <v>0.27923001227986699</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -29368,7 +29369,7 @@
         <v>0.180513893552468</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -29403,7 +29404,7 @@
         <v>3.99414598840903E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>456</v>
       </c>
@@ -29438,7 +29439,7 @@
         <v>2.8562459810270099E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -29473,7 +29474,7 @@
         <v>5.0805830851661703E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>460</v>
       </c>
@@ -29508,7 +29509,7 @@
         <v>0.155627357726808</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -29543,7 +29544,7 @@
         <v>2.6883144663381299E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>331</v>
       </c>
@@ -29578,7 +29579,7 @@
         <v>9.9679447184145408E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>356</v>
       </c>
@@ -29613,7 +29614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -29648,7 +29649,7 @@
         <v>0.154408494728561</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>247</v>
       </c>
@@ -29683,7 +29684,7 @@
         <v>0.38922268736374299</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>448</v>
       </c>
@@ -29718,7 +29719,7 @@
         <v>2.5638780427639299E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>188</v>
       </c>
@@ -29753,7 +29754,7 @@
         <v>0.106308210189009</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>205</v>
       </c>
@@ -29788,7 +29789,7 @@
         <v>5.1046179746839997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -29823,7 +29824,7 @@
         <v>5.5034011091209097E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -29858,7 +29859,7 @@
         <v>2.30470315613856E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>210</v>
       </c>
@@ -29893,7 +29894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>406</v>
       </c>
@@ -29928,7 +29929,7 @@
         <v>1.30123046988869E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>235</v>
       </c>
@@ -29963,7 +29964,7 @@
         <v>0.15811797561205401</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>280</v>
       </c>
@@ -29998,7 +29999,7 @@
         <v>1.6716617049860799E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>468</v>
       </c>
@@ -30033,7 +30034,7 @@
         <v>6.4226175950474404E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>351</v>
       </c>
@@ -30068,7 +30069,7 @@
         <v>0.14988924396560599</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -30103,7 +30104,7 @@
         <v>3.2371843381424903E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>472</v>
       </c>
@@ -30138,7 +30139,7 @@
         <v>0.13192782152646099</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>492</v>
       </c>
@@ -30173,7 +30174,7 @@
         <v>9.9129906715112695E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>285</v>
       </c>
@@ -30208,7 +30209,7 @@
         <v>9.5627701523340505E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>297</v>
       </c>
@@ -30243,7 +30244,7 @@
         <v>0.110995111663903</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>193</v>
       </c>
@@ -30278,7 +30279,7 @@
         <v>0.102598560845837</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>149</v>
       </c>
@@ -30313,7 +30314,7 @@
         <v>0.292910646221551</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>214</v>
       </c>
@@ -30348,7 +30349,7 @@
         <v>1.4320306719796399E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>547</v>
       </c>
@@ -30383,7 +30384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>552</v>
       </c>
@@ -30418,7 +30419,7 @@
         <v>0.11459488742707399</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>180</v>
       </c>
@@ -30453,7 +30454,7 @@
         <v>8.6077676497362393E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>555</v>
       </c>
@@ -30488,7 +30489,7 @@
         <v>0.183892207111053</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -30523,7 +30524,7 @@
         <v>0.19634810083427001</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>197</v>
       </c>
@@ -30558,7 +30559,7 @@
         <v>0.11263467385286099</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -30593,7 +30594,7 @@
         <v>3.1853807955289699E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -30628,7 +30629,7 @@
         <v>4.69673065207247E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>517</v>
       </c>
@@ -30663,7 +30664,7 @@
         <v>0.14195379228855701</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>505</v>
       </c>
@@ -30698,7 +30699,7 @@
         <v>0.244542716318013</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>343</v>
       </c>
@@ -30733,7 +30734,7 @@
         <v>8.1317585822087299E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -30768,7 +30769,7 @@
         <v>0.30704164710196302</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>369</v>
       </c>
@@ -30803,7 +30804,7 @@
         <v>9.7534822022011899E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>431</v>
       </c>
@@ -30838,7 +30839,7 @@
         <v>7.2793435775726195E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>464</v>
       </c>
@@ -30873,7 +30874,7 @@
         <v>0.124309866571929</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>373</v>
       </c>
@@ -30908,7 +30909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>105</v>
       </c>
@@ -30943,7 +30944,7 @@
         <v>8.5681319794482E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>534</v>
       </c>
@@ -30978,7 +30979,7 @@
         <v>8.5360332419778098E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>443</v>
       </c>
@@ -31013,7 +31014,7 @@
         <v>0.15191830055317601</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>411</v>
       </c>
@@ -31048,7 +31049,7 @@
         <v>0.13488051259079301</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>314</v>
       </c>
@@ -31083,7 +31084,7 @@
         <v>3.8328360913550499E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>301</v>
       </c>
@@ -31118,7 +31119,7 @@
         <v>0.144767975469342</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>394</v>
       </c>
@@ -31153,7 +31154,7 @@
         <v>4.69428929720054E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>377</v>
       </c>
@@ -31188,7 +31189,7 @@
         <v>8.8517753988328701E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>564</v>
       </c>
@@ -31224,7 +31225,7 @@
         <v>0.257053731541593</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>140</v>
       </c>
@@ -31259,7 +31260,7 @@
         <v>0.15887881270037199</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>480</v>
       </c>
@@ -31294,7 +31295,7 @@
         <v>0.22362983791340199</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -31329,7 +31330,7 @@
         <v>0.15154683294205201</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>484</v>
       </c>
@@ -31364,7 +31365,7 @@
         <v>0.17324852378612601</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>423</v>
       </c>
@@ -31399,7 +31400,7 @@
         <v>0.100333324036691</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>381</v>
       </c>
@@ -31434,7 +31435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>122</v>
       </c>
@@ -31469,7 +31470,7 @@
         <v>0.18478177427668999</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>157</v>
       </c>
@@ -31504,7 +31505,7 @@
         <v>0.123220194964796</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>319</v>
       </c>
@@ -31539,7 +31540,7 @@
         <v>5.5178932986426503E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>44</v>
       </c>
@@ -31574,7 +31575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>184</v>
       </c>
@@ -31609,7 +31610,7 @@
         <v>2.7502590005153999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -31644,7 +31645,7 @@
         <v>3.98421720938478E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>522</v>
       </c>
@@ -31679,7 +31680,7 @@
         <v>0.14463419609733699</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>306</v>
       </c>
@@ -31714,7 +31715,7 @@
         <v>5.6215799238590998E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>398</v>
       </c>
@@ -31749,7 +31750,7 @@
         <v>1.7063895391311E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>323</v>
       </c>
@@ -31784,7 +31785,7 @@
         <v>7.3131913106581098E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>415</v>
       </c>
@@ -31819,7 +31820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>539</v>
       </c>
@@ -31854,7 +31855,7 @@
         <v>2.8665581150944301E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>218</v>
       </c>
@@ -31889,7 +31890,7 @@
         <v>9.1373146181788198E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>110</v>
       </c>
@@ -31924,7 +31925,7 @@
         <v>5.6230887164027896E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>275</v>
       </c>
@@ -31959,7 +31960,7 @@
         <v>7.7772069792825499E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>637</v>
       </c>
@@ -31994,7 +31995,7 @@
         <v>0.127744566291777</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>526</v>
       </c>
@@ -32029,7 +32030,7 @@
         <v>0.12830934934548999</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -32064,7 +32065,7 @@
         <v>4.4756604695677001E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>509</v>
       </c>
@@ -32099,7 +32100,7 @@
         <v>0.14727770606184401</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>49</v>
       </c>
@@ -32134,7 +32135,7 @@
         <v>7.7862342245086605E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>327</v>
       </c>
@@ -32169,7 +32170,7 @@
         <v>8.2994817087988601E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>435</v>
       </c>
@@ -32204,7 +32205,7 @@
         <v>3.0721123541852701E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>259</v>
       </c>
@@ -32239,7 +32240,7 @@
         <v>0.106957247733758</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>201</v>
       </c>
@@ -32274,7 +32275,7 @@
         <v>3.0918474517821599E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>543</v>
       </c>
@@ -32309,7 +32310,7 @@
         <v>0.10694930347640701</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>419</v>
       </c>
@@ -32344,7 +32345,7 @@
         <v>0.104181774070519</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>222</v>
       </c>
@@ -32379,7 +32380,7 @@
         <v>0.199810352282878</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>53</v>
       </c>
@@ -32414,7 +32415,7 @@
         <v>7.8726262142603698E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>488</v>
       </c>
@@ -32449,7 +32450,7 @@
         <v>0.13526414987597901</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>145</v>
       </c>
@@ -32484,7 +32485,7 @@
         <v>0.210131642454467</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -32519,7 +32520,7 @@
         <v>0.12448606683491099</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>530</v>
       </c>
@@ -32554,7 +32555,7 @@
         <v>5.5182743455439401E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>513</v>
       </c>
@@ -32589,7 +32590,7 @@
         <v>6.84694549667548E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>131</v>
       </c>
@@ -32624,7 +32625,7 @@
         <v>8.4723065153382807E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>402</v>
       </c>
@@ -32659,7 +32660,7 @@
         <v>5.5463826773977799E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>310</v>
       </c>
@@ -32694,7 +32695,7 @@
         <v>7.2849298068753995E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>263</v>
       </c>
@@ -32729,7 +32730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -32764,7 +32765,7 @@
         <v>2.3180670128938201E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>154</v>
       </c>
@@ -32799,7 +32800,7 @@
         <v>6.68324972166595E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>226</v>
       </c>
@@ -32834,7 +32835,7 @@
         <v>7.8959316144803296E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>171</v>
       </c>
@@ -32869,7 +32870,7 @@
         <v>3.9758856587959301E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>439</v>
       </c>
@@ -32904,7 +32905,7 @@
         <v>5.0783211096890102E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>427</v>
       </c>
@@ -32939,7 +32940,7 @@
         <v>5.5300266363775698E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>267</v>
       </c>
@@ -32974,7 +32975,7 @@
         <v>1.5321096691894701E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -33009,7 +33010,7 @@
         <v>1.30770510856435E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>271</v>
       </c>
@@ -33044,7 +33045,7 @@
         <v>6.7498455894173803E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>239</v>
       </c>
@@ -33079,7 +33080,7 @@
         <v>4.3703220526596399E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>347</v>
       </c>
@@ -33114,7 +33115,7 @@
         <v>4.3714162732318498E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>335</v>
       </c>
@@ -33149,7 +33150,7 @@
         <v>8.7272691496104504E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>118</v>
       </c>
@@ -33184,7 +33185,7 @@
         <v>2.7137636791055599E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>136</v>
       </c>
@@ -33233,93 +33234,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CB127"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S135" sqref="S135"/>
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BO5" sqref="BO5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="7.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" style="8" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="7.44140625" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="8" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="8" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="8" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" style="8" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="8" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="8" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="7.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="8" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="7.5546875" style="8" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" style="4" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="5.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="13.44140625" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="21" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="19.42578125" customWidth="1"/>
+    <col min="26" max="26" width="7.5546875" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="7.109375" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="19.44140625" customWidth="1"/>
     <col min="30" max="30" width="7" style="8" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="7.140625" style="8" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="8.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="5.7109375" style="8" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="6.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="7.109375" style="8" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="8.44140625" style="8" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="5.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="6.109375" style="8" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="5" style="8" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="5.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="6.140625" style="8" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="5.140625" style="8" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="5.28515625" style="8" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="4.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="3.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="10.85546875" style="4" customWidth="1"/>
-    <col min="43" max="43" width="11.42578125" style="4" customWidth="1"/>
-    <col min="44" max="44" width="7.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="9.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="5.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="6.109375" style="8" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="5.109375" style="8" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="5.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="4.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="3.44140625" style="8" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="10.88671875" style="4" customWidth="1"/>
+    <col min="43" max="43" width="11.44140625" style="4" customWidth="1"/>
+    <col min="44" max="44" width="7.5546875" style="4" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="9.5546875" style="4" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="5" style="4" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="16.140625" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="16.109375" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="18.109375" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="6.5546875" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="10.44140625" hidden="1" customWidth="1"/>
     <col min="51" max="51" width="7" hidden="1" customWidth="1"/>
     <col min="52" max="52" width="21" customWidth="1"/>
-    <col min="53" max="53" width="7.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="6.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="7.109375" style="6" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="6.5546875" style="6" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="8.6640625" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="7" style="8" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="5.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="7.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="8.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="6.7109375" style="8" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="6.28515625" style="8" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="6.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="5.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="4.28515625" style="8" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="10.7109375" style="6" customWidth="1"/>
-    <col min="66" max="66" width="12.28515625" style="6" customWidth="1"/>
-    <col min="67" max="67" width="10.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="9.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="5.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="5.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="7.44140625" style="8" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="8.5546875" style="8" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="6.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="6.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="6.5546875" style="8" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="5.44140625" style="8" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="4.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="10.6640625" style="6" customWidth="1"/>
+    <col min="66" max="66" width="12.33203125" style="6" customWidth="1"/>
+    <col min="67" max="67" width="10.44140625" style="6" customWidth="1"/>
+    <col min="68" max="68" width="9.44140625" style="6" customWidth="1"/>
+    <col min="69" max="69" width="5.44140625" style="6" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="13.44140625" hidden="1" customWidth="1"/>
     <col min="71" max="71" width="21" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="6.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="6.5546875" style="8" hidden="1" customWidth="1"/>
     <col min="74" max="74" width="7" style="8" hidden="1" customWidth="1"/>
     <col min="75" max="75" width="8" style="8" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="6.7109375" style="8" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="7.42578125" style="8" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="6.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="7.44140625" style="8" hidden="1" customWidth="1"/>
     <col min="78" max="78" width="8" style="8" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="9.7109375" style="4" customWidth="1"/>
+    <col min="79" max="79" width="9.6640625" style="4" customWidth="1"/>
     <col min="80" max="80" width="8" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -33555,7 +33556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>390</v>
       </c>
@@ -33788,7 +33789,7 @@
         <v>0.27392000697976399</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>293</v>
       </c>
@@ -34021,7 +34022,7 @@
         <v>5.6342392374268198E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>251</v>
       </c>
@@ -34254,7 +34255,7 @@
         <v>0.19664224845071701</v>
       </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>365</v>
       </c>
@@ -34487,7 +34488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>255</v>
       </c>
@@ -34720,7 +34721,7 @@
         <v>9.0877218278882205E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -34953,7 +34954,7 @@
         <v>1.50569470376895E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>476</v>
       </c>
@@ -35186,7 +35187,7 @@
         <v>0.116612702598606</v>
       </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>452</v>
       </c>
@@ -35419,7 +35420,7 @@
         <v>0.14741126057092199</v>
       </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -35652,7 +35653,7 @@
         <v>2.7429848481859E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -35885,7 +35886,7 @@
         <v>2.0229222337692698E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>361</v>
       </c>
@@ -36118,7 +36119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>230</v>
       </c>
@@ -36351,7 +36352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>385</v>
       </c>
@@ -36584,7 +36585,7 @@
         <v>1.41465434947688E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -36817,7 +36818,7 @@
         <v>8.3775423817094893E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>496</v>
       </c>
@@ -37050,7 +37051,7 @@
         <v>9.8901572370775098E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>339</v>
       </c>
@@ -37283,7 +37284,7 @@
         <v>3.7313076342224E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>500</v>
       </c>
@@ -37516,7 +37517,7 @@
         <v>0.27923001227986699</v>
       </c>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -37749,7 +37750,7 @@
         <v>0.180513893552468</v>
       </c>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -37982,7 +37983,7 @@
         <v>3.99414598840903E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>456</v>
       </c>
@@ -38215,7 +38216,7 @@
         <v>2.8562459810270099E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -38448,7 +38449,7 @@
         <v>5.0805830851661703E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>460</v>
       </c>
@@ -38681,7 +38682,7 @@
         <v>0.155627357726808</v>
       </c>
     </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -38914,7 +38915,7 @@
         <v>2.6883144663381299E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>331</v>
       </c>
@@ -39147,7 +39148,7 @@
         <v>9.9679447184145408E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>356</v>
       </c>
@@ -39380,7 +39381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -39613,7 +39614,7 @@
         <v>0.154408494728561</v>
       </c>
     </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>247</v>
       </c>
@@ -39846,7 +39847,7 @@
         <v>0.38922268736374299</v>
       </c>
     </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>448</v>
       </c>
@@ -40079,7 +40080,7 @@
         <v>2.5638780427639299E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>188</v>
       </c>
@@ -40312,7 +40313,7 @@
         <v>0.106308210189009</v>
       </c>
     </row>
-    <row r="31" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>205</v>
       </c>
@@ -40545,7 +40546,7 @@
         <v>5.1046179746839997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -40778,7 +40779,7 @@
         <v>5.5034011091209097E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -41011,7 +41012,7 @@
         <v>2.30470315613856E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>210</v>
       </c>
@@ -41244,7 +41245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>406</v>
       </c>
@@ -41477,7 +41478,7 @@
         <v>1.30123046988869E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>235</v>
       </c>
@@ -41710,7 +41711,7 @@
         <v>0.15811797561205401</v>
       </c>
     </row>
-    <row r="37" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>280</v>
       </c>
@@ -41943,7 +41944,7 @@
         <v>1.6716617049860799E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>468</v>
       </c>
@@ -42176,7 +42177,7 @@
         <v>6.4226175950474404E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>351</v>
       </c>
@@ -42409,7 +42410,7 @@
         <v>0.14988924396560599</v>
       </c>
     </row>
-    <row r="40" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -42642,7 +42643,7 @@
         <v>3.2371843381424903E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>472</v>
       </c>
@@ -42875,7 +42876,7 @@
         <v>0.13192782152646099</v>
       </c>
     </row>
-    <row r="42" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>492</v>
       </c>
@@ -43108,7 +43109,7 @@
         <v>9.9129906715112695E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>285</v>
       </c>
@@ -43341,7 +43342,7 @@
         <v>9.5627701523340505E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>297</v>
       </c>
@@ -43574,7 +43575,7 @@
         <v>0.110995111663903</v>
       </c>
     </row>
-    <row r="45" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>193</v>
       </c>
@@ -43807,7 +43808,7 @@
         <v>0.102598560845837</v>
       </c>
     </row>
-    <row r="46" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>149</v>
       </c>
@@ -44040,7 +44041,7 @@
         <v>0.292910646221551</v>
       </c>
     </row>
-    <row r="47" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>214</v>
       </c>
@@ -44273,7 +44274,7 @@
         <v>1.4320306719796399E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>547</v>
       </c>
@@ -44506,7 +44507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>552</v>
       </c>
@@ -44674,7 +44675,7 @@
         <v>0.11459488742707399</v>
       </c>
     </row>
-    <row r="50" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>180</v>
       </c>
@@ -44907,7 +44908,7 @@
         <v>8.6077676497362393E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:80" x14ac:dyDescent="0.3">
       <c r="X51" t="s">
         <v>555</v>
       </c>
@@ -45074,7 +45075,7 @@
         <v>0.183892207111053</v>
       </c>
     </row>
-    <row r="52" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -45307,7 +45308,7 @@
         <v>0.19634810083427001</v>
       </c>
     </row>
-    <row r="53" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>197</v>
       </c>
@@ -45540,7 +45541,7 @@
         <v>0.11263467385286099</v>
       </c>
     </row>
-    <row r="54" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -45773,7 +45774,7 @@
         <v>3.1853807955289699E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -46006,7 +46007,7 @@
         <v>4.69673065207247E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>517</v>
       </c>
@@ -46239,7 +46240,7 @@
         <v>0.14195379228855701</v>
       </c>
     </row>
-    <row r="57" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>505</v>
       </c>
@@ -46472,7 +46473,7 @@
         <v>0.244542716318013</v>
       </c>
     </row>
-    <row r="58" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>343</v>
       </c>
@@ -46705,7 +46706,7 @@
         <v>8.1317585822087299E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -46938,7 +46939,7 @@
         <v>0.30704164710196302</v>
       </c>
     </row>
-    <row r="60" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>369</v>
       </c>
@@ -47171,7 +47172,7 @@
         <v>9.7534822022011899E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>431</v>
       </c>
@@ -47404,7 +47405,7 @@
         <v>7.2793435775726195E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>464</v>
       </c>
@@ -47637,7 +47638,7 @@
         <v>0.124309866571929</v>
       </c>
     </row>
-    <row r="63" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>373</v>
       </c>
@@ -47870,7 +47871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>105</v>
       </c>
@@ -48103,7 +48104,7 @@
         <v>8.5681319794482E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>534</v>
       </c>
@@ -48336,7 +48337,7 @@
         <v>8.5360332419778098E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>443</v>
       </c>
@@ -48569,7 +48570,7 @@
         <v>0.15191830055317601</v>
       </c>
     </row>
-    <row r="67" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>411</v>
       </c>
@@ -48802,7 +48803,7 @@
         <v>0.13488051259079301</v>
       </c>
     </row>
-    <row r="68" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>314</v>
       </c>
@@ -49035,7 +49036,7 @@
         <v>3.8328360913550499E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>301</v>
       </c>
@@ -49268,7 +49269,7 @@
         <v>0.144767975469342</v>
       </c>
     </row>
-    <row r="70" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>394</v>
       </c>
@@ -49501,7 +49502,7 @@
         <v>4.69428929720054E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>377</v>
       </c>
@@ -49734,7 +49735,7 @@
         <v>8.8517753988328701E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -49967,7 +49968,7 @@
         <v>0.15887881270037199</v>
       </c>
     </row>
-    <row r="73" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>480</v>
       </c>
@@ -50200,7 +50201,7 @@
         <v>0.22362983791340199</v>
       </c>
     </row>
-    <row r="74" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -50433,7 +50434,7 @@
         <v>0.15154683294205201</v>
       </c>
     </row>
-    <row r="75" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>484</v>
       </c>
@@ -50666,7 +50667,7 @@
         <v>0.17324852378612601</v>
       </c>
     </row>
-    <row r="76" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>423</v>
       </c>
@@ -50899,7 +50900,7 @@
         <v>0.100333324036691</v>
       </c>
     </row>
-    <row r="77" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>381</v>
       </c>
@@ -51132,7 +51133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>122</v>
       </c>
@@ -51365,7 +51366,7 @@
         <v>0.18478177427668999</v>
       </c>
     </row>
-    <row r="79" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -51598,7 +51599,7 @@
         <v>0.123220194964796</v>
       </c>
     </row>
-    <row r="80" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>319</v>
       </c>
@@ -51831,7 +51832,7 @@
         <v>5.5178932986426503E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -52064,7 +52065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>184</v>
       </c>
@@ -52297,7 +52298,7 @@
         <v>2.7502590005153999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>167</v>
       </c>
@@ -52530,7 +52531,7 @@
         <v>3.98421720938478E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>522</v>
       </c>
@@ -52763,7 +52764,7 @@
         <v>0.14463419609733699</v>
       </c>
     </row>
-    <row r="85" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>306</v>
       </c>
@@ -52996,7 +52997,7 @@
         <v>5.6215799238590998E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>398</v>
       </c>
@@ -53229,7 +53230,7 @@
         <v>1.7063895391311E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>323</v>
       </c>
@@ -53462,7 +53463,7 @@
         <v>7.3131913106581098E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>415</v>
       </c>
@@ -53695,7 +53696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>539</v>
       </c>
@@ -53928,7 +53929,7 @@
         <v>2.8665581150944301E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>218</v>
       </c>
@@ -54161,7 +54162,7 @@
         <v>9.1373146181788198E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>110</v>
       </c>
@@ -54394,7 +54395,7 @@
         <v>5.6230887164027896E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>275</v>
       </c>
@@ -54627,7 +54628,7 @@
         <v>7.7772069792825499E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>526</v>
       </c>
@@ -54860,7 +54861,7 @@
         <v>0.12830934934548999</v>
       </c>
     </row>
-    <row r="94" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>114</v>
       </c>
@@ -55093,7 +55094,7 @@
         <v>4.4756604695677001E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>509</v>
       </c>
@@ -55326,7 +55327,7 @@
         <v>0.14727770606184401</v>
       </c>
     </row>
-    <row r="96" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>49</v>
       </c>
@@ -55559,7 +55560,7 @@
         <v>7.7862342245086605E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>327</v>
       </c>
@@ -55792,7 +55793,7 @@
         <v>8.2994817087988601E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>435</v>
       </c>
@@ -56025,7 +56026,7 @@
         <v>3.0721123541852701E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>259</v>
       </c>
@@ -56258,7 +56259,7 @@
         <v>0.106957247733758</v>
       </c>
     </row>
-    <row r="100" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>201</v>
       </c>
@@ -56491,7 +56492,7 @@
         <v>3.0918474517821599E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>543</v>
       </c>
@@ -56724,7 +56725,7 @@
         <v>0.10694930347640701</v>
       </c>
     </row>
-    <row r="102" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>419</v>
       </c>
@@ -56957,7 +56958,7 @@
         <v>0.104181774070519</v>
       </c>
     </row>
-    <row r="103" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -57190,7 +57191,7 @@
         <v>0.199810352282878</v>
       </c>
     </row>
-    <row r="104" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>53</v>
       </c>
@@ -57423,7 +57424,7 @@
         <v>7.8726262142603698E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>488</v>
       </c>
@@ -57656,7 +57657,7 @@
         <v>0.13526414987597901</v>
       </c>
     </row>
-    <row r="106" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>145</v>
       </c>
@@ -57889,7 +57890,7 @@
         <v>0.210131642454467</v>
       </c>
     </row>
-    <row r="107" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>88</v>
       </c>
@@ -58122,7 +58123,7 @@
         <v>0.12448606683491099</v>
       </c>
     </row>
-    <row r="108" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>530</v>
       </c>
@@ -58355,7 +58356,7 @@
         <v>5.5182743455439401E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>513</v>
       </c>
@@ -58588,7 +58589,7 @@
         <v>6.84694549667548E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>131</v>
       </c>
@@ -58821,7 +58822,7 @@
         <v>8.4723065153382807E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>402</v>
       </c>
@@ -59054,7 +59055,7 @@
         <v>5.5463826773977799E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>310</v>
       </c>
@@ -59287,7 +59288,7 @@
         <v>7.2849298068753995E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>263</v>
       </c>
@@ -59520,7 +59521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -59753,7 +59754,7 @@
         <v>2.3180670128938201E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>154</v>
       </c>
@@ -59986,7 +59987,7 @@
         <v>6.68324972166595E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>226</v>
       </c>
@@ -60153,7 +60154,7 @@
         <v>7.8959316144803296E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>171</v>
       </c>
@@ -60386,7 +60387,7 @@
         <v>3.9758856587959301E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>439</v>
       </c>
@@ -60619,7 +60620,7 @@
         <v>5.0783211096890102E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>427</v>
       </c>
@@ -60852,7 +60853,7 @@
         <v>5.5300266363775698E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>267</v>
       </c>
@@ -61085,7 +61086,7 @@
         <v>1.5321096691894701E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>31</v>
       </c>
@@ -61318,7 +61319,7 @@
         <v>1.30770510856435E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>271</v>
       </c>
@@ -61551,7 +61552,7 @@
         <v>6.7498455894173803E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>239</v>
       </c>
@@ -61784,7 +61785,7 @@
         <v>4.3703220526596399E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>347</v>
       </c>
@@ -62017,7 +62018,7 @@
         <v>4.3714162732318498E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>335</v>
       </c>
@@ -62250,7 +62251,7 @@
         <v>8.7272691496104504E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>118</v>
       </c>
@@ -62420,7 +62421,7 @@
         <v>2.7137636791055599E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>136</v>
       </c>
@@ -62612,92 +62613,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D8F3C9-456F-486C-B771-C0E6F8906F90}">
   <dimension ref="A1:CD103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="BM4" sqref="BM4"/>
+    <sheetView tabSelected="1" topLeftCell="T76" workbookViewId="0">
+      <selection activeCell="BO2" sqref="BO2:BO103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="7.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" style="8" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="8" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="7.44140625" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="8" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="8" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="8" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" style="8" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="8" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="8" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="7.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="8" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" style="21" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="4" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" style="4" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="5.28515625" style="4" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="7.5546875" style="8" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" style="21" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="7.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" style="4" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="5.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="13.44140625" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="21" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="19.42578125" customWidth="1"/>
+    <col min="26" max="26" width="7.5546875" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="7.109375" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="19.44140625" customWidth="1"/>
     <col min="30" max="30" width="7" style="8" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="7.140625" style="8" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="8.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="5.7109375" style="8" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="6.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="7.109375" style="8" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="8.44140625" style="8" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="5.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="6.109375" style="8" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="5" style="8" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="5.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="6.140625" style="8" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="5.140625" style="8" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="5.28515625" style="8" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="4.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="3.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="10.85546875" style="21" customWidth="1"/>
-    <col min="43" max="43" width="11.42578125" style="4" customWidth="1"/>
-    <col min="44" max="44" width="7.5703125" style="4" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="9.5703125" style="4" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="5.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="6.109375" style="8" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="5.109375" style="8" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="5.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="4.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="3.44140625" style="8" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="10.88671875" style="21" customWidth="1"/>
+    <col min="43" max="43" width="11.44140625" style="4" customWidth="1"/>
+    <col min="44" max="44" width="7.5546875" style="4" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="9.5546875" style="4" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="5" style="4" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="16.140625" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="16.109375" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="18.109375" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="6.5546875" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="10.44140625" hidden="1" customWidth="1"/>
     <col min="51" max="51" width="7" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="7.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="6.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="7.109375" style="6" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="6.5546875" style="6" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="8.6640625" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="7" style="8" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="5.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="7.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="8.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="6.7109375" style="8" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="6.28515625" style="8" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="6.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="5.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="4.28515625" style="8" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="10.7109375" style="21" customWidth="1"/>
-    <col min="66" max="66" width="12.28515625" style="21" customWidth="1"/>
-    <col min="67" max="67" width="10.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="9.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="5.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="5.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="7.44140625" style="8" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="8.5546875" style="8" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="6.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="6.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="6.5546875" style="8" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="5.44140625" style="8" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="4.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="10.6640625" style="21" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="12.33203125" style="21" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="10.44140625" style="21" customWidth="1"/>
+    <col min="68" max="68" width="9.44140625" style="4" customWidth="1"/>
+    <col min="69" max="69" width="5.44140625" style="6" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="13.44140625" hidden="1" customWidth="1"/>
     <col min="71" max="71" width="21" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="6.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="6.5546875" style="8" hidden="1" customWidth="1"/>
     <col min="74" max="74" width="7" style="8" hidden="1" customWidth="1"/>
     <col min="75" max="75" width="8" style="8" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="6.7109375" style="8" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="7.42578125" style="8" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="6.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="7.44140625" style="8" hidden="1" customWidth="1"/>
     <col min="78" max="78" width="8" style="8" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="9.7109375" style="21" customWidth="1"/>
+    <col min="79" max="79" width="9.6640625" style="21" customWidth="1"/>
     <col min="80" max="80" width="8" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -62892,10 +62893,10 @@
       <c r="BN1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BO1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BP1" s="25" t="s">
         <v>21</v>
       </c>
       <c r="BQ1" s="5"/>
@@ -62939,7 +62940,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>251</v>
       </c>
@@ -63132,10 +63133,10 @@
       <c r="BN2" s="21">
         <v>2.8464279174397599E-2</v>
       </c>
-      <c r="BO2" s="6">
+      <c r="BO2" s="21">
         <v>0.20004947957418201</v>
       </c>
-      <c r="BP2" s="6">
+      <c r="BP2" s="4">
         <v>5.1735658591089501E-2</v>
       </c>
       <c r="BR2" t="s">
@@ -63178,7 +63179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>255</v>
       </c>
@@ -63371,10 +63372,10 @@
       <c r="BN3" s="21">
         <v>1.7903768574473899E-2</v>
       </c>
-      <c r="BO3" s="6">
+      <c r="BO3" s="21">
         <v>-2.50074213338611E-2</v>
       </c>
-      <c r="BP3" s="6">
+      <c r="BP3" s="4">
         <v>2.0929019008026101E-2</v>
       </c>
       <c r="BR3" t="s">
@@ -63417,7 +63418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -63610,10 +63611,10 @@
       <c r="BN4" s="21">
         <v>0.105418710012879</v>
       </c>
-      <c r="BO4" s="6">
+      <c r="BO4" s="21">
         <v>-0.38690476190476197</v>
       </c>
-      <c r="BP4" s="6">
+      <c r="BP4" s="4">
         <v>0.30140449764695598</v>
       </c>
       <c r="BR4" t="s">
@@ -63656,7 +63657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>235</v>
       </c>
@@ -63849,10 +63850,10 @@
       <c r="BN5" s="21">
         <v>6.8751053115761102E-2</v>
       </c>
-      <c r="BO5" s="6">
+      <c r="BO5" s="21">
         <v>0.489084782433575</v>
       </c>
-      <c r="BP5" s="6">
+      <c r="BP5" s="4">
         <v>6.7331822520808396E-2</v>
       </c>
       <c r="BR5" t="s">
@@ -63895,7 +63896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>259</v>
       </c>
@@ -64088,10 +64089,10 @@
       <c r="BN6" s="21">
         <v>0.10601623031586099</v>
       </c>
-      <c r="BO6" s="6">
+      <c r="BO6" s="21">
         <v>-0.18216431394855601</v>
       </c>
-      <c r="BP6" s="6">
+      <c r="BP6" s="4">
         <v>0.11288413149404899</v>
       </c>
       <c r="BR6" t="s">
@@ -64134,7 +64135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>263</v>
       </c>
@@ -64327,10 +64328,10 @@
       <c r="BN7" s="21">
         <v>5.2123424751134899E-2</v>
       </c>
-      <c r="BO7" s="6">
+      <c r="BO7" s="21">
         <v>7.7581852788757594E-2</v>
       </c>
-      <c r="BP7" s="6">
+      <c r="BP7" s="4">
         <v>6.9321333573945307E-2</v>
       </c>
       <c r="BR7" t="s">
@@ -64373,7 +64374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>267</v>
       </c>
@@ -64566,10 +64567,10 @@
       <c r="BN8" s="21">
         <v>3.5422357995963397E-2</v>
       </c>
-      <c r="BO8" s="6">
+      <c r="BO8" s="21">
         <v>0.28945033914728702</v>
       </c>
-      <c r="BP8" s="6">
+      <c r="BP8" s="4">
         <v>2.50760165042926E-2</v>
       </c>
       <c r="BR8" t="s">
@@ -64612,7 +64613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>271</v>
       </c>
@@ -64805,10 +64806,10 @@
       <c r="BN9" s="21">
         <v>9.4258735286343195E-2</v>
       </c>
-      <c r="BO9" s="6">
+      <c r="BO9" s="21">
         <v>-3.6403575546890297E-2</v>
       </c>
-      <c r="BP9" s="6">
+      <c r="BP9" s="4">
         <v>0.108160570429035</v>
       </c>
       <c r="BR9" t="s">
@@ -64851,7 +64852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>239</v>
       </c>
@@ -65044,10 +65045,10 @@
       <c r="BN10" s="21">
         <v>4.9866950307083303E-2</v>
       </c>
-      <c r="BO10" s="6">
+      <c r="BO10" s="21">
         <v>-5.78394672116673E-2</v>
       </c>
-      <c r="BP10" s="6">
+      <c r="BP10" s="4">
         <v>6.8887534024399399E-2</v>
       </c>
       <c r="BR10" t="s">
@@ -65090,7 +65091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>496</v>
       </c>
@@ -65283,10 +65284,10 @@
       <c r="BN11" s="21">
         <v>2.6094552068338502E-2</v>
       </c>
-      <c r="BO11" s="6">
+      <c r="BO11" s="21">
         <v>-0.26638440073263298</v>
       </c>
-      <c r="BP11" s="6">
+      <c r="BP11" s="4">
         <v>8.6410009655350298E-3</v>
       </c>
       <c r="BR11" t="s">
@@ -65329,7 +65330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -65522,10 +65523,10 @@
       <c r="BN12" s="21">
         <v>0.11590071617412701</v>
       </c>
-      <c r="BO12" s="6">
+      <c r="BO12" s="21">
         <v>0.116166838110269</v>
       </c>
-      <c r="BP12" s="6">
+      <c r="BP12" s="4">
         <v>0.12998852569573399</v>
       </c>
       <c r="BR12" t="s">
@@ -65568,7 +65569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>448</v>
       </c>
@@ -65761,10 +65762,10 @@
       <c r="BN13" s="21">
         <v>1.9697229797119301E-2</v>
       </c>
-      <c r="BO13" s="6">
+      <c r="BO13" s="21">
         <v>0.242662117182665</v>
       </c>
-      <c r="BP13" s="6">
+      <c r="BP13" s="4">
         <v>6.6702301632788299E-2</v>
       </c>
       <c r="BR13" t="s">
@@ -65807,7 +65808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>468</v>
       </c>
@@ -66000,10 +66001,10 @@
       <c r="BN14" s="21">
         <v>2.6939432646102199E-2</v>
       </c>
-      <c r="BO14" s="6">
+      <c r="BO14" s="21">
         <v>0.32559031965458002</v>
       </c>
-      <c r="BP14" s="6">
+      <c r="BP14" s="4">
         <v>3.62014876159929E-2</v>
       </c>
       <c r="BR14" t="s">
@@ -66046,7 +66047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>472</v>
       </c>
@@ -66239,10 +66240,10 @@
       <c r="BN15" s="21">
         <v>0.11077929630956</v>
       </c>
-      <c r="BO15" s="6">
+      <c r="BO15" s="21">
         <v>-0.34109595823498701</v>
       </c>
-      <c r="BP15" s="6">
+      <c r="BP15" s="4">
         <v>0.28199756602746601</v>
       </c>
       <c r="BR15" t="s">
@@ -66285,7 +66286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>492</v>
       </c>
@@ -66478,10 +66479,10 @@
       <c r="BN16" s="21">
         <v>4.0870309832187202E-2</v>
       </c>
-      <c r="BO16" s="6">
+      <c r="BO16" s="21">
         <v>5.7165157201206199E-2</v>
       </c>
-      <c r="BP16" s="6">
+      <c r="BP16" s="4">
         <v>4.8087647149458998E-2</v>
       </c>
       <c r="BR16" t="s">
@@ -66524,7 +66525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>464</v>
       </c>
@@ -66717,10 +66718,10 @@
       <c r="BN17" s="21">
         <v>2.95554442375827E-2</v>
       </c>
-      <c r="BO17" s="6">
+      <c r="BO17" s="21">
         <v>0.32565343130922603</v>
       </c>
-      <c r="BP17" s="6">
+      <c r="BP17" s="4">
         <v>3.4079285338441498E-2</v>
       </c>
       <c r="BR17" t="s">
@@ -66763,7 +66764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>443</v>
       </c>
@@ -66956,10 +66957,10 @@
       <c r="BN18" s="21">
         <v>2.0062608118061698E-2</v>
       </c>
-      <c r="BO18" s="6">
+      <c r="BO18" s="21">
         <v>0.10150033558047999</v>
       </c>
-      <c r="BP18" s="6">
+      <c r="BP18" s="4">
         <v>2.3131894962465899E-2</v>
       </c>
       <c r="BR18" t="s">
@@ -67002,7 +67003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>480</v>
       </c>
@@ -67195,10 +67196,10 @@
       <c r="BN19" s="21">
         <v>3.4968109499482897E-2</v>
       </c>
-      <c r="BO19" s="6">
+      <c r="BO19" s="21">
         <v>1.1254780048804799E-2</v>
       </c>
-      <c r="BP19" s="6">
+      <c r="BP19" s="4">
         <v>3.05985146500245E-2</v>
       </c>
       <c r="BR19" t="s">
@@ -67241,7 +67242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>484</v>
       </c>
@@ -67434,10 +67435,10 @@
       <c r="BN20" s="21">
         <v>4.33501860864988E-2</v>
       </c>
-      <c r="BO20" s="6">
+      <c r="BO20" s="21">
         <v>-6.8477013804850495E-2</v>
       </c>
-      <c r="BP20" s="6">
+      <c r="BP20" s="4">
         <v>4.40798295418156E-2</v>
       </c>
       <c r="BR20" t="s">
@@ -67480,7 +67481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>488</v>
       </c>
@@ -67673,10 +67674,10 @@
       <c r="BN21" s="21">
         <v>9.1197074846201598E-2</v>
       </c>
-      <c r="BO21" s="6">
+      <c r="BO21" s="21">
         <v>7.1481898362863602E-2</v>
       </c>
-      <c r="BP21" s="6">
+      <c r="BP21" s="4">
         <v>0.13599829910379199</v>
       </c>
       <c r="BR21" t="s">
@@ -67719,7 +67720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>339</v>
       </c>
@@ -67912,10 +67913,10 @@
       <c r="BN22" s="21">
         <v>4.3653985655891098E-2</v>
       </c>
-      <c r="BO22" s="6">
+      <c r="BO22" s="21">
         <v>-0.330998738792804</v>
       </c>
-      <c r="BP22" s="6">
+      <c r="BP22" s="4">
         <v>6.7569862473021505E-2</v>
       </c>
       <c r="BR22" t="s">
@@ -67958,7 +67959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>331</v>
       </c>
@@ -68151,10 +68152,10 @@
       <c r="BN23" s="21">
         <v>0.1223015388374</v>
       </c>
-      <c r="BO23" s="6">
+      <c r="BO23" s="21">
         <v>-0.26864614831811701</v>
       </c>
-      <c r="BP23" s="6">
+      <c r="BP23" s="4">
         <v>6.7693817793006997E-2</v>
       </c>
       <c r="BR23" t="s">
@@ -68197,7 +68198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>343</v>
       </c>
@@ -68390,10 +68391,10 @@
       <c r="BN24" s="21">
         <v>3.6920929505216402E-2</v>
       </c>
-      <c r="BO24" s="6">
+      <c r="BO24" s="21">
         <v>-0.26321244496503599</v>
       </c>
-      <c r="BP24" s="6">
+      <c r="BP24" s="4">
         <v>1.1727663059300701E-2</v>
       </c>
       <c r="BR24" t="s">
@@ -68436,7 +68437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>431</v>
       </c>
@@ -68629,10 +68630,10 @@
       <c r="BN25" s="21">
         <v>2.92043865142852E-2</v>
       </c>
-      <c r="BO25" s="6">
+      <c r="BO25" s="21">
         <v>-9.6549242619988498E-2</v>
       </c>
-      <c r="BP25" s="6">
+      <c r="BP25" s="4">
         <v>6.4824628705483306E-2</v>
       </c>
       <c r="BR25" t="s">
@@ -68675,7 +68676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>423</v>
       </c>
@@ -68868,10 +68869,10 @@
       <c r="BN26" s="21">
         <v>3.78537301738225E-2</v>
       </c>
-      <c r="BO26" s="6">
+      <c r="BO26" s="21">
         <v>0.84266615737203998</v>
       </c>
-      <c r="BP26" s="6">
+      <c r="BP26" s="4">
         <v>3.9787687281627397E-2</v>
       </c>
       <c r="BR26" t="s">
@@ -68914,7 +68915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>275</v>
       </c>
@@ -69107,10 +69108,10 @@
       <c r="BN27" s="21">
         <v>3.4149299404594297E-2</v>
       </c>
-      <c r="BO27" s="6">
+      <c r="BO27" s="21">
         <v>-0.31385597262641701</v>
       </c>
-      <c r="BP27" s="6">
+      <c r="BP27" s="4">
         <v>0.16109524978716899</v>
       </c>
       <c r="BR27" t="s">
@@ -69153,7 +69154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>435</v>
       </c>
@@ -69346,10 +69347,10 @@
       <c r="BN28" s="21">
         <v>9.2424583497356494E-2</v>
       </c>
-      <c r="BO28" s="6">
+      <c r="BO28" s="21">
         <v>0.17424851667378799</v>
       </c>
-      <c r="BP28" s="6">
+      <c r="BP28" s="4">
         <v>9.6150693083988006E-2</v>
       </c>
       <c r="BR28" t="s">
@@ -69392,7 +69393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>427</v>
       </c>
@@ -69585,10 +69586,10 @@
       <c r="BN29" s="21">
         <v>4.4116804380096601E-3</v>
       </c>
-      <c r="BO29" s="6">
+      <c r="BO29" s="21">
         <v>-1.4056693699244401E-2</v>
       </c>
-      <c r="BP29" s="6">
+      <c r="BP29" s="4">
         <v>1.25091904237149E-2</v>
       </c>
       <c r="BR29" t="s">
@@ -69631,7 +69632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>347</v>
       </c>
@@ -69824,10 +69825,10 @@
       <c r="BN30" s="21">
         <v>2.8280992765228899E-2</v>
       </c>
-      <c r="BO30" s="6">
+      <c r="BO30" s="21">
         <v>0.118986047419764</v>
       </c>
-      <c r="BP30" s="6">
+      <c r="BP30" s="4">
         <v>1.0831226094844101E-2</v>
       </c>
       <c r="BR30" t="s">
@@ -69870,7 +69871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>335</v>
       </c>
@@ -70063,10 +70064,10 @@
       <c r="BN31" s="21">
         <v>0.159950438200924</v>
       </c>
-      <c r="BO31" s="6">
+      <c r="BO31" s="21">
         <v>4.6036962232149099E-2</v>
       </c>
-      <c r="BP31" s="6">
+      <c r="BP31" s="4">
         <v>0.28017093104644702</v>
       </c>
       <c r="BR31" t="s">
@@ -70109,7 +70110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>222</v>
       </c>
@@ -70302,10 +70303,10 @@
       <c r="BN32" s="21">
         <v>3.6801674085131297E-2</v>
       </c>
-      <c r="BO32" s="6">
+      <c r="BO32" s="21">
         <v>0.35295363908275201</v>
       </c>
-      <c r="BP32" s="6">
+      <c r="BP32" s="4">
         <v>7.2761964324252098E-3</v>
       </c>
       <c r="BR32" t="s">
@@ -70348,7 +70349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>293</v>
       </c>
@@ -70541,10 +70542,10 @@
       <c r="BN33" s="21">
         <v>3.74774872586549E-2</v>
       </c>
-      <c r="BO33" s="6">
+      <c r="BO33" s="21">
         <v>-0.237824991739193</v>
       </c>
-      <c r="BP33" s="6">
+      <c r="BP33" s="4">
         <v>3.8442080255814297E-2</v>
       </c>
       <c r="BR33" t="s">
@@ -70587,7 +70588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>289</v>
       </c>
@@ -70780,10 +70781,10 @@
       <c r="BN34" s="21">
         <v>2.35312479772453E-2</v>
       </c>
-      <c r="BO34" s="6">
+      <c r="BO34" s="21">
         <v>-7.8856107903121905E-2</v>
       </c>
-      <c r="BP34" s="6">
+      <c r="BP34" s="4">
         <v>1.48833370014616E-2</v>
       </c>
       <c r="BR34" t="s">
@@ -70826,7 +70827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>280</v>
       </c>
@@ -71019,10 +71020,10 @@
       <c r="BN35" s="21">
         <v>3.67420544472426E-2</v>
       </c>
-      <c r="BO35" s="6">
+      <c r="BO35" s="21">
         <v>-3.31589307406851E-2</v>
       </c>
-      <c r="BP35" s="6">
+      <c r="BP35" s="4">
         <v>2.38546853074246E-2</v>
       </c>
       <c r="BR35" t="s">
@@ -71065,7 +71066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>297</v>
       </c>
@@ -71258,10 +71259,10 @@
       <c r="BN36" s="21">
         <v>2.2970209474442699E-2</v>
       </c>
-      <c r="BO36" s="6">
+      <c r="BO36" s="21">
         <v>0.127328203610348</v>
       </c>
-      <c r="BP36" s="6">
+      <c r="BP36" s="4">
         <v>4.4087931907087798E-2</v>
       </c>
       <c r="BR36" t="s">
@@ -71304,7 +71305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>500</v>
       </c>
@@ -71497,10 +71498,10 @@
       <c r="BN37" s="21">
         <v>6.3572691788827997E-3</v>
       </c>
-      <c r="BO37" s="6">
+      <c r="BO37" s="21">
         <v>0.56514738112889296</v>
       </c>
-      <c r="BP37" s="6">
+      <c r="BP37" s="4">
         <v>1.5969447415276901E-2</v>
       </c>
       <c r="BR37" t="s">
@@ -71543,7 +71544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>505</v>
       </c>
@@ -71736,10 +71737,10 @@
       <c r="BN38" s="21">
         <v>4.3220023451333599E-2</v>
       </c>
-      <c r="BO38" s="6">
+      <c r="BO38" s="21">
         <v>0.26861474356713999</v>
       </c>
-      <c r="BP38" s="6">
+      <c r="BP38" s="4">
         <v>8.6662768497696094E-2</v>
       </c>
       <c r="BR38" t="s">
@@ -71782,7 +71783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>509</v>
       </c>
@@ -71975,10 +71976,10 @@
       <c r="BN39" s="21">
         <v>0.142557483531462</v>
       </c>
-      <c r="BO39" s="6">
+      <c r="BO39" s="21">
         <v>-0.178294158919475</v>
       </c>
-      <c r="BP39" s="6">
+      <c r="BP39" s="4">
         <v>9.9767825999484999E-2</v>
       </c>
       <c r="BR39" t="s">
@@ -72021,7 +72022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>513</v>
       </c>
@@ -72214,10 +72215,10 @@
       <c r="BN40" s="21">
         <v>3.4534659554543101E-2</v>
       </c>
-      <c r="BO40" s="6">
+      <c r="BO40" s="21">
         <v>0.16154268296807101</v>
       </c>
-      <c r="BP40" s="6">
+      <c r="BP40" s="4">
         <v>4.8787961084692598E-2</v>
       </c>
       <c r="BR40" t="s">
@@ -72260,7 +72261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>105</v>
       </c>
@@ -72453,10 +72454,10 @@
       <c r="BN41" s="21">
         <v>9.6951032395648701E-2</v>
       </c>
-      <c r="BO41" s="6">
+      <c r="BO41" s="21">
         <v>0.113507898676396</v>
       </c>
-      <c r="BP41" s="6">
+      <c r="BP41" s="4">
         <v>5.6124351523611303E-2</v>
       </c>
       <c r="BR41" t="s">
@@ -72499,7 +72500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -72692,10 +72693,10 @@
       <c r="BN42" s="21">
         <v>4.1303195922559197E-2</v>
       </c>
-      <c r="BO42" s="6">
+      <c r="BO42" s="21">
         <v>2.0180690357560399E-2</v>
       </c>
-      <c r="BP42" s="6">
+      <c r="BP42" s="4">
         <v>7.8170738230754794E-2</v>
       </c>
       <c r="BR42" t="s">
@@ -72738,7 +72739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -72931,10 +72932,10 @@
       <c r="BN43" s="21">
         <v>8.2003996129108997E-2</v>
       </c>
-      <c r="BO43" s="6">
+      <c r="BO43" s="21">
         <v>0.55589110223759097</v>
       </c>
-      <c r="BP43" s="6">
+      <c r="BP43" s="4">
         <v>8.0587455132629202E-2</v>
       </c>
       <c r="BR43" t="s">
@@ -72977,7 +72978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>301</v>
       </c>
@@ -73170,10 +73171,10 @@
       <c r="BN44" s="21">
         <v>0.228166662885911</v>
       </c>
-      <c r="BO44" s="6">
+      <c r="BO44" s="21">
         <v>-2.3447958271283799E-2</v>
       </c>
-      <c r="BP44" s="6">
+      <c r="BP44" s="4">
         <v>0.28387781774910598</v>
       </c>
       <c r="BR44" t="s">
@@ -73216,7 +73217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>306</v>
       </c>
@@ -73409,10 +73410,10 @@
       <c r="BN45" s="21">
         <v>1.6739945921647601E-2</v>
       </c>
-      <c r="BO45" s="6">
+      <c r="BO45" s="21">
         <v>0.40069941110089802</v>
       </c>
-      <c r="BP45" s="6">
+      <c r="BP45" s="4">
         <v>1.33930492485541E-2</v>
       </c>
       <c r="BR45" t="s">
@@ -73455,7 +73456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>310</v>
       </c>
@@ -73648,10 +73649,10 @@
       <c r="BN46" s="21">
         <v>0.10888444366908601</v>
       </c>
-      <c r="BO46" s="6">
+      <c r="BO46" s="21">
         <v>0.66154950449198802</v>
       </c>
-      <c r="BP46" s="6">
+      <c r="BP46" s="4">
         <v>0.108032019255677</v>
       </c>
       <c r="BR46" t="s">
@@ -73694,7 +73695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -73887,10 +73888,10 @@
       <c r="BN47" s="21">
         <v>6.6436265018320798E-2</v>
       </c>
-      <c r="BO47" s="6">
+      <c r="BO47" s="21">
         <v>-0.27004091183317902</v>
       </c>
-      <c r="BP47" s="6">
+      <c r="BP47" s="4">
         <v>8.8126175444588506E-2</v>
       </c>
       <c r="BR47" t="s">
@@ -73933,7 +73934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>127</v>
       </c>
@@ -74126,10 +74127,10 @@
       <c r="BN48" s="21">
         <v>1.21478636638781E-2</v>
       </c>
-      <c r="BO48" s="6">
+      <c r="BO48" s="21">
         <v>-0.114758171089873</v>
       </c>
-      <c r="BP48" s="6">
+      <c r="BP48" s="4">
         <v>4.6372740051797201E-2</v>
       </c>
       <c r="BR48" t="s">
@@ -74172,7 +74173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>385</v>
       </c>
@@ -74365,10 +74366,10 @@
       <c r="BN49" s="21">
         <v>2.59912009883679E-2</v>
       </c>
-      <c r="BO49" s="6">
+      <c r="BO49" s="21">
         <v>-1.22670261356926E-2</v>
       </c>
-      <c r="BP49" s="6">
+      <c r="BP49" s="4">
         <v>2.2740562532836298E-2</v>
       </c>
       <c r="BR49" t="s">
@@ -74411,7 +74412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>394</v>
       </c>
@@ -74604,10 +74605,10 @@
       <c r="BN50" s="21">
         <v>6.5836335745451703E-3</v>
       </c>
-      <c r="BO50" s="6">
+      <c r="BO50" s="21">
         <v>0.205943388090919</v>
       </c>
-      <c r="BP50" s="6">
+      <c r="BP50" s="4">
         <v>1.8643311410119399E-2</v>
       </c>
       <c r="BR50" t="s">
@@ -74650,7 +74651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>398</v>
       </c>
@@ -74843,10 +74844,10 @@
       <c r="BN51" s="21">
         <v>6.2401465848927699E-3</v>
       </c>
-      <c r="BO51" s="6">
+      <c r="BO51" s="21">
         <v>-0.31169907529212498</v>
       </c>
-      <c r="BP51" s="6">
+      <c r="BP51" s="4">
         <v>8.9247874231283705E-2</v>
       </c>
       <c r="BR51" t="s">
@@ -74889,7 +74890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>402</v>
       </c>
@@ -75082,10 +75083,10 @@
       <c r="BN52" s="21">
         <v>1.0718997943810199E-2</v>
       </c>
-      <c r="BO52" s="6">
+      <c r="BO52" s="21">
         <v>0.99077600067699101</v>
       </c>
-      <c r="BP52" s="6">
+      <c r="BP52" s="4">
         <v>1.07081773445939E-2</v>
       </c>
       <c r="BR52" t="s">
@@ -75128,7 +75129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>365</v>
       </c>
@@ -75321,10 +75322,10 @@
       <c r="BN53" s="21">
         <v>1.8476794696483001E-2</v>
       </c>
-      <c r="BO53" s="6">
+      <c r="BO53" s="21">
         <v>0.89811639996872195</v>
       </c>
-      <c r="BP53" s="6">
+      <c r="BP53" s="4">
         <v>1.81249283313441E-2</v>
       </c>
       <c r="BR53" t="s">
@@ -75367,7 +75368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>356</v>
       </c>
@@ -75560,10 +75561,10 @@
       <c r="BN54" s="21">
         <v>2.9088236608255401E-2</v>
       </c>
-      <c r="BO54" s="6">
+      <c r="BO54" s="21">
         <v>0.77761714773845603</v>
       </c>
-      <c r="BP54" s="6">
+      <c r="BP54" s="4">
         <v>2.9350145058967599E-2</v>
       </c>
       <c r="BR54" t="s">
@@ -75606,7 +75607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>369</v>
       </c>
@@ -75799,10 +75800,10 @@
       <c r="BN55" s="21">
         <v>3.0332082737971101E-2</v>
       </c>
-      <c r="BO55" s="6">
+      <c r="BO55" s="21">
         <v>0.65391593301200102</v>
       </c>
-      <c r="BP55" s="6">
+      <c r="BP55" s="4">
         <v>1.8734680846247801E-2</v>
       </c>
       <c r="BR55" t="s">
@@ -75845,7 +75846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>373</v>
       </c>
@@ -76038,10 +76039,10 @@
       <c r="BN56" s="21">
         <v>2.58781905392928E-2</v>
       </c>
-      <c r="BO56" s="6">
+      <c r="BO56" s="21">
         <v>0.98590430811991303</v>
       </c>
-      <c r="BP56" s="6">
+      <c r="BP56" s="4">
         <v>1.62892130210569E-2</v>
       </c>
       <c r="BR56" t="s">
@@ -76084,7 +76085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>381</v>
       </c>
@@ -76277,10 +76278,10 @@
       <c r="BN57" s="21">
         <v>3.3324690862316301E-3</v>
       </c>
-      <c r="BO57" s="6">
+      <c r="BO57" s="21">
         <v>0.42380385104972301</v>
       </c>
-      <c r="BP57" s="6">
+      <c r="BP57" s="4">
         <v>2.1249292855373601E-2</v>
       </c>
       <c r="BR57" t="s">
@@ -76323,7 +76324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>406</v>
       </c>
@@ -76516,10 +76517,10 @@
       <c r="BN58" s="21">
         <v>5.7884882833619498E-2</v>
       </c>
-      <c r="BO58" s="6">
+      <c r="BO58" s="21">
         <v>0.58679206630654701</v>
       </c>
-      <c r="BP58" s="6">
+      <c r="BP58" s="4">
         <v>5.6145153184357199E-2</v>
       </c>
       <c r="BR58" t="s">
@@ -76562,7 +76563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>415</v>
       </c>
@@ -76755,10 +76756,10 @@
       <c r="BN59" s="21">
         <v>0.12146997573539001</v>
       </c>
-      <c r="BO59" s="6">
+      <c r="BO59" s="21">
         <v>-6.7119231558706693E-2</v>
       </c>
-      <c r="BP59" s="6">
+      <c r="BP59" s="4">
         <v>4.6428412667926001E-2</v>
       </c>
       <c r="BR59" t="s">
@@ -76801,7 +76802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>162</v>
       </c>
@@ -76994,10 +76995,10 @@
       <c r="BN60" s="21">
         <v>2.2204705062153898E-2</v>
       </c>
-      <c r="BO60" s="6">
+      <c r="BO60" s="21">
         <v>9.26219378631075E-4</v>
       </c>
-      <c r="BP60" s="6">
+      <c r="BP60" s="4">
         <v>2.52073800382927E-2</v>
       </c>
       <c r="BR60" t="s">
@@ -77040,7 +77041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>167</v>
       </c>
@@ -77233,10 +77234,10 @@
       <c r="BN61" s="21">
         <v>9.6924369723505599E-2</v>
       </c>
-      <c r="BO61" s="6">
+      <c r="BO61" s="21">
         <v>0.430465367965368</v>
       </c>
-      <c r="BP61" s="6">
+      <c r="BP61" s="4">
         <v>0.35002123276077102</v>
       </c>
       <c r="BR61" t="s">
@@ -77279,7 +77280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>171</v>
       </c>
@@ -77472,10 +77473,10 @@
       <c r="BN62" s="21">
         <v>6.7987562971859497E-2</v>
       </c>
-      <c r="BO62" s="6">
+      <c r="BO62" s="21">
         <v>6.5035240571430106E-2</v>
       </c>
-      <c r="BP62" s="6">
+      <c r="BP62" s="4">
         <v>9.5832143894796704E-2</v>
       </c>
       <c r="BR62" t="s">
@@ -77518,7 +77519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>140</v>
       </c>
@@ -77711,10 +77712,10 @@
       <c r="BN63" s="21">
         <v>8.5852152743575799E-2</v>
       </c>
-      <c r="BO63" s="6">
+      <c r="BO63" s="21">
         <v>0.33343965975544898</v>
       </c>
-      <c r="BP63" s="6">
+      <c r="BP63" s="4">
         <v>0.20508059925677999</v>
       </c>
       <c r="BR63" t="s">
@@ -77757,7 +77758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>145</v>
       </c>
@@ -77950,10 +77951,10 @@
       <c r="BN64" s="21">
         <v>0.11313547706448999</v>
       </c>
-      <c r="BO64" s="6">
+      <c r="BO64" s="21">
         <v>-9.0741424874964102E-2</v>
       </c>
-      <c r="BP64" s="6">
+      <c r="BP64" s="4">
         <v>5.6238168078376803E-2</v>
       </c>
       <c r="BR64" t="s">
@@ -77996,7 +77997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -78189,10 +78190,10 @@
       <c r="BN65" s="21">
         <v>9.4217347221898798E-2</v>
       </c>
-      <c r="BO65" s="6">
+      <c r="BO65" s="21">
         <v>-1.5971458119440399E-2</v>
       </c>
-      <c r="BP65" s="6">
+      <c r="BP65" s="4">
         <v>5.5937569063618901E-2</v>
       </c>
       <c r="BR65" t="s">
@@ -78235,7 +78236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>157</v>
       </c>
@@ -78428,10 +78429,10 @@
       <c r="BN66" s="21">
         <v>4.4401067504437799E-2</v>
       </c>
-      <c r="BO66" s="6">
+      <c r="BO66" s="21">
         <v>-0.152651161982294</v>
       </c>
-      <c r="BP66" s="6">
+      <c r="BP66" s="4">
         <v>5.8761454635829102E-2</v>
       </c>
       <c r="BR66" t="s">
@@ -78474,7 +78475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>175</v>
       </c>
@@ -78667,10 +78668,10 @@
       <c r="BN67" s="21">
         <v>6.8453587919918802E-3</v>
       </c>
-      <c r="BO67" s="6">
+      <c r="BO67" s="21">
         <v>5.4662827686419897E-2</v>
       </c>
-      <c r="BP67" s="6">
+      <c r="BP67" s="4">
         <v>3.1384626812593901E-2</v>
       </c>
       <c r="BR67" t="s">
@@ -78713,7 +78714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>180</v>
       </c>
@@ -78906,10 +78907,10 @@
       <c r="BN68" s="21">
         <v>4.7264087395844201E-2</v>
       </c>
-      <c r="BO68" s="6">
+      <c r="BO68" s="21">
         <v>0.13260007995151199</v>
       </c>
-      <c r="BP68" s="6">
+      <c r="BP68" s="4">
         <v>8.2169313109359404E-2</v>
       </c>
       <c r="BR68" t="s">
@@ -78952,7 +78953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>184</v>
       </c>
@@ -79145,10 +79146,10 @@
       <c r="BN69" s="21">
         <v>2.9547227717400398E-2</v>
       </c>
-      <c r="BO69" s="6">
+      <c r="BO69" s="21">
         <v>-3.10175237113261E-2</v>
       </c>
-      <c r="BP69" s="6">
+      <c r="BP69" s="4">
         <v>3.1209824653673699E-2</v>
       </c>
       <c r="BR69" t="s">
@@ -79191,7 +79192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>188</v>
       </c>
@@ -79384,10 +79385,10 @@
       <c r="BN70" s="21">
         <v>0.13347204421586201</v>
       </c>
-      <c r="BO70" s="6">
+      <c r="BO70" s="21">
         <v>0.83078581781476102</v>
       </c>
-      <c r="BP70" s="6">
+      <c r="BP70" s="4">
         <v>3.95363280572898E-2</v>
       </c>
       <c r="BR70" t="s">
@@ -79430,7 +79431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -79623,10 +79624,10 @@
       <c r="BN71" s="21">
         <v>0.16062484984601799</v>
       </c>
-      <c r="BO71" s="6">
+      <c r="BO71" s="21">
         <v>6.7949647757806805E-2</v>
       </c>
-      <c r="BP71" s="6">
+      <c r="BP71" s="4">
         <v>0.167463200760464</v>
       </c>
       <c r="BR71" t="s">
@@ -79669,7 +79670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>197</v>
       </c>
@@ -79862,10 +79863,10 @@
       <c r="BN72" s="21">
         <v>5.0083526705124198E-2</v>
       </c>
-      <c r="BO72" s="6">
+      <c r="BO72" s="21">
         <v>0.63347783767595101</v>
       </c>
-      <c r="BP72" s="6">
+      <c r="BP72" s="4">
         <v>7.7341115840209598E-2</v>
       </c>
       <c r="BR72" t="s">
@@ -79908,7 +79909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>201</v>
       </c>
@@ -80101,10 +80102,10 @@
       <c r="BN73" s="21">
         <v>2.8301011931806501E-2</v>
       </c>
-      <c r="BO73" s="6">
+      <c r="BO73" s="21">
         <v>0.30188696625531503</v>
       </c>
-      <c r="BP73" s="6">
+      <c r="BP73" s="4">
         <v>3.1873389061440903E-2</v>
       </c>
       <c r="BR73" t="s">
@@ -80147,7 +80148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>205</v>
       </c>
@@ -80340,10 +80341,10 @@
       <c r="BN74" s="21">
         <v>0.143862776240442</v>
       </c>
-      <c r="BO74" s="6">
+      <c r="BO74" s="21">
         <v>-0.28065476190476202</v>
       </c>
-      <c r="BP74" s="6">
+      <c r="BP74" s="4">
         <v>0.19817853245400599</v>
       </c>
       <c r="BR74" t="s">
@@ -80386,7 +80387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>210</v>
       </c>
@@ -80579,10 +80580,10 @@
       <c r="BN75" s="21">
         <v>0.112945805898163</v>
       </c>
-      <c r="BO75" s="6">
+      <c r="BO75" s="21">
         <v>0.22869293308317701</v>
       </c>
-      <c r="BP75" s="6">
+      <c r="BP75" s="4">
         <v>9.5563291563130801E-2</v>
       </c>
       <c r="BR75" t="s">
@@ -80625,7 +80626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>214</v>
       </c>
@@ -80818,10 +80819,10 @@
       <c r="BN76" s="21">
         <v>0.2424319279977</v>
       </c>
-      <c r="BO76" s="6">
+      <c r="BO76" s="21">
         <v>0.22884373690825299</v>
       </c>
-      <c r="BP76" s="6">
+      <c r="BP76" s="4">
         <v>0.246203031848026</v>
       </c>
       <c r="BR76" t="s">
@@ -80864,7 +80865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>218</v>
       </c>
@@ -81057,10 +81058,10 @@
       <c r="BN77" s="21">
         <v>1.22802223966514E-2</v>
       </c>
-      <c r="BO77" s="6">
+      <c r="BO77" s="21">
         <v>1.40124033931243E-2</v>
       </c>
-      <c r="BP77" s="6">
+      <c r="BP77" s="4">
         <v>4.86140182711002E-2</v>
       </c>
       <c r="BR77" t="s">
@@ -81103,7 +81104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -81296,10 +81297,10 @@
       <c r="BN78" s="21">
         <v>3.2264216089247101E-2</v>
       </c>
-      <c r="BO78" s="6">
+      <c r="BO78" s="21">
         <v>4.3210391044193304E-3</v>
       </c>
-      <c r="BP78" s="6">
+      <c r="BP78" s="4">
         <v>3.09588247790803E-2</v>
       </c>
       <c r="BR78" t="s">
@@ -81342,7 +81343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>49</v>
       </c>
@@ -81535,10 +81536,10 @@
       <c r="BN79" s="21">
         <v>5.33782442780966E-2</v>
       </c>
-      <c r="BO79" s="6">
+      <c r="BO79" s="21">
         <v>0.40702738810489603</v>
       </c>
-      <c r="BP79" s="6">
+      <c r="BP79" s="4">
         <v>3.10918133187299E-2</v>
       </c>
       <c r="BR79" t="s">
@@ -81581,7 +81582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>97</v>
       </c>
@@ -81774,10 +81775,10 @@
       <c r="BN80" s="21">
         <v>7.1999711667085298E-2</v>
       </c>
-      <c r="BO80" s="6">
+      <c r="BO80" s="21">
         <v>0.46818305151156597</v>
       </c>
-      <c r="BP80" s="6">
+      <c r="BP80" s="4">
         <v>6.8460340749594895E-2</v>
       </c>
       <c r="BR80" t="s">
@@ -81820,7 +81821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>101</v>
       </c>
@@ -82013,10 +82014,10 @@
       <c r="BN81" s="21">
         <v>0</v>
       </c>
-      <c r="BO81" s="6">
+      <c r="BO81" s="21">
         <v>1</v>
       </c>
-      <c r="BP81" s="6">
+      <c r="BP81" s="4">
         <v>0</v>
       </c>
       <c r="BR81" t="s">
@@ -82059,7 +82060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>63</v>
       </c>
@@ -82252,10 +82253,10 @@
       <c r="BN82" s="21">
         <v>1.86045806606874E-2</v>
       </c>
-      <c r="BO82" s="6">
+      <c r="BO82" s="21">
         <v>0.91354741627087999</v>
       </c>
-      <c r="BP82" s="6">
+      <c r="BP82" s="4">
         <v>1.9564595727307899E-2</v>
       </c>
       <c r="BR82" t="s">
@@ -82298,7 +82299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>58</v>
       </c>
@@ -82491,10 +82492,10 @@
       <c r="BN83" s="21">
         <v>2.78448953132958E-2</v>
       </c>
-      <c r="BO83" s="6">
+      <c r="BO83" s="21">
         <v>0.77090673791433595</v>
       </c>
-      <c r="BP83" s="6">
+      <c r="BP83" s="4">
         <v>2.4505175816367498E-2</v>
       </c>
       <c r="BR83" t="s">
@@ -82537,7 +82538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>67</v>
       </c>
@@ -82730,10 +82731,10 @@
       <c r="BN84" s="21">
         <v>2.6843218749555399E-2</v>
       </c>
-      <c r="BO84" s="6">
+      <c r="BO84" s="21">
         <v>0.84395956178826304</v>
       </c>
-      <c r="BP84" s="6">
+      <c r="BP84" s="4">
         <v>2.2402841841586901E-2</v>
       </c>
       <c r="BR84" t="s">
@@ -82776,7 +82777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -82969,10 +82970,10 @@
       <c r="BN85" s="21">
         <v>6.1670232498479201E-2</v>
       </c>
-      <c r="BO85" s="6">
+      <c r="BO85" s="21">
         <v>0.60703695502924204</v>
       </c>
-      <c r="BP85" s="6">
+      <c r="BP85" s="4">
         <v>5.6489819504060998E-2</v>
       </c>
       <c r="BR85" t="s">
@@ -83015,7 +83016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -83208,10 +83209,10 @@
       <c r="BN86" s="21">
         <v>1.7058921181893699E-2</v>
       </c>
-      <c r="BO86" s="6">
+      <c r="BO86" s="21">
         <v>0.73557028761161203</v>
       </c>
-      <c r="BP86" s="6">
+      <c r="BP86" s="4">
         <v>2.0371168943142701E-2</v>
       </c>
       <c r="BR86" t="s">
@@ -83254,7 +83255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -83447,10 +83448,10 @@
       <c r="BN87" s="21">
         <v>7.2093359368355397E-2</v>
       </c>
-      <c r="BO87" s="6">
+      <c r="BO87" s="21">
         <v>0.39222002985412002</v>
       </c>
-      <c r="BP87" s="6">
+      <c r="BP87" s="4">
         <v>0.10096755453954601</v>
       </c>
       <c r="BR87" t="s">
@@ -83493,7 +83494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>71</v>
       </c>
@@ -83686,10 +83687,10 @@
       <c r="BN88" s="21">
         <v>0.115979193689022</v>
       </c>
-      <c r="BO88" s="6">
+      <c r="BO88" s="21">
         <v>0.56626634459451797</v>
       </c>
-      <c r="BP88" s="6">
+      <c r="BP88" s="4">
         <v>9.9351476670458003E-2</v>
       </c>
       <c r="BR88" t="s">
@@ -83732,7 +83733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -83925,10 +83926,10 @@
       <c r="BN89" s="21">
         <v>6.6673737769643193E-2</v>
       </c>
-      <c r="BO89" s="6">
+      <c r="BO89" s="21">
         <v>0.502398636966083</v>
       </c>
-      <c r="BP89" s="6">
+      <c r="BP89" s="4">
         <v>6.8298985089828096E-2</v>
       </c>
       <c r="BR89" t="s">
@@ -83971,7 +83972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>547</v>
       </c>
@@ -84164,10 +84165,10 @@
       <c r="BN90" s="21">
         <v>0</v>
       </c>
-      <c r="BO90" s="6">
+      <c r="BO90" s="21">
         <v>1</v>
       </c>
-      <c r="BP90" s="6">
+      <c r="BP90" s="4">
         <v>0</v>
       </c>
       <c r="BR90" t="s">
@@ -84210,7 +84211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>351</v>
       </c>
@@ -84403,10 +84404,10 @@
       <c r="BN91" s="21">
         <v>5.4600712872709699E-2</v>
       </c>
-      <c r="BO91" s="6">
+      <c r="BO91" s="21">
         <v>-0.19926306894447399</v>
       </c>
-      <c r="BP91" s="6">
+      <c r="BP91" s="4">
         <v>6.9445034724179497E-2</v>
       </c>
       <c r="BR91" t="s">
@@ -84449,7 +84450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -84642,10 +84643,10 @@
       <c r="BN92" s="21">
         <v>0.11130096131879801</v>
       </c>
-      <c r="BO92" s="6">
+      <c r="BO92" s="21">
         <v>0.18817798767264199</v>
       </c>
-      <c r="BP92" s="6">
+      <c r="BP92" s="4">
         <v>8.4024434705358697E-2</v>
       </c>
       <c r="BR92" t="s">
@@ -84688,7 +84689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>31</v>
       </c>
@@ -84881,10 +84882,10 @@
       <c r="BN93" s="21">
         <v>4.6598130601563301E-3</v>
       </c>
-      <c r="BO93" s="6">
+      <c r="BO93" s="21">
         <v>0.13308365752589199</v>
       </c>
-      <c r="BP93" s="6">
+      <c r="BP93" s="4">
         <v>6.8462727691371303E-3</v>
       </c>
       <c r="BR93" t="s">
@@ -84927,7 +84928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>517</v>
       </c>
@@ -85120,10 +85121,10 @@
       <c r="BN94" s="21">
         <v>6.8014776665106205E-2</v>
       </c>
-      <c r="BO94" s="6">
+      <c r="BO94" s="21">
         <v>-5.8829756799048004E-3</v>
       </c>
-      <c r="BP94" s="6">
+      <c r="BP94" s="4">
         <v>0.106023913891655</v>
       </c>
       <c r="BR94" t="s">
@@ -85166,7 +85167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>522</v>
       </c>
@@ -85359,10 +85360,10 @@
       <c r="BN95" s="21">
         <v>9.1771214620247593E-2</v>
       </c>
-      <c r="BO95" s="6">
+      <c r="BO95" s="21">
         <v>-4.85531297942422E-2</v>
       </c>
-      <c r="BP95" s="6">
+      <c r="BP95" s="4">
         <v>9.7646433232005406E-2</v>
       </c>
       <c r="BR95" t="s">
@@ -85405,7 +85406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>526</v>
       </c>
@@ -85598,10 +85599,10 @@
       <c r="BN96" s="21">
         <v>5.1693969094108498E-2</v>
       </c>
-      <c r="BO96" s="6">
+      <c r="BO96" s="21">
         <v>0.35778725492551899</v>
       </c>
-      <c r="BP96" s="6">
+      <c r="BP96" s="4">
         <v>6.3825210750252395E-2</v>
       </c>
       <c r="BR96" t="s">
@@ -85644,7 +85645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>530</v>
       </c>
@@ -85837,10 +85838,10 @@
       <c r="BN97" s="21">
         <v>0.178063180268445</v>
       </c>
-      <c r="BO97" s="6">
+      <c r="BO97" s="21">
         <v>0.178534813502047</v>
       </c>
-      <c r="BP97" s="6">
+      <c r="BP97" s="4">
         <v>0.16917766179614099</v>
       </c>
       <c r="BR97" t="s">
@@ -85883,7 +85884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>534</v>
       </c>
@@ -86076,10 +86077,10 @@
       <c r="BN98" s="21">
         <v>3.2842127501899701E-2</v>
       </c>
-      <c r="BO98" s="6">
+      <c r="BO98" s="21">
         <v>5.5927077916534097E-2</v>
       </c>
-      <c r="BP98" s="6">
+      <c r="BP98" s="4">
         <v>3.1464668859574399E-2</v>
       </c>
       <c r="BR98" t="s">
@@ -86122,7 +86123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>539</v>
       </c>
@@ -86315,10 +86316,10 @@
       <c r="BN99" s="21">
         <v>0.164119806251324</v>
       </c>
-      <c r="BO99" s="6">
+      <c r="BO99" s="21">
         <v>0.50498778998779004</v>
       </c>
-      <c r="BP99" s="6">
+      <c r="BP99" s="4">
         <v>9.2168956766655305E-2</v>
       </c>
       <c r="BR99" t="s">
@@ -86361,7 +86362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>543</v>
       </c>
@@ -86554,10 +86555,10 @@
       <c r="BN100" s="21">
         <v>8.4537649580955596E-2</v>
       </c>
-      <c r="BO100" s="6">
+      <c r="BO100" s="21">
         <v>-0.34162605244851901</v>
       </c>
-      <c r="BP100" s="6">
+      <c r="BP100" s="4">
         <v>9.2633990517476603E-2</v>
       </c>
       <c r="BR100" t="s">
@@ -86600,7 +86601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>319</v>
       </c>
@@ -86793,10 +86794,10 @@
       <c r="BN101" s="21">
         <v>3.8833479349849299E-2</v>
       </c>
-      <c r="BO101" s="6">
+      <c r="BO101" s="21">
         <v>0.56012879322512299</v>
       </c>
-      <c r="BP101" s="6">
+      <c r="BP101" s="4">
         <v>3.6571105956903799E-2</v>
       </c>
       <c r="BR101" t="s">
@@ -86839,7 +86840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>323</v>
       </c>
@@ -87032,10 +87033,10 @@
       <c r="BN102" s="21">
         <v>1.3976697167463E-2</v>
       </c>
-      <c r="BO102" s="6">
+      <c r="BO102" s="21">
         <v>0.78614738805970197</v>
       </c>
-      <c r="BP102" s="6">
+      <c r="BP102" s="4">
         <v>6.9259526142338703E-3</v>
       </c>
       <c r="BR102" t="s">
@@ -87078,7 +87079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>327</v>
       </c>
@@ -87271,10 +87272,10 @@
       <c r="BN103" s="21">
         <v>0.18846995438131001</v>
       </c>
-      <c r="BO103" s="6">
+      <c r="BO103" s="21">
         <v>-0.49848045226343601</v>
       </c>
-      <c r="BP103" s="6">
+      <c r="BP103" s="4">
         <v>5.6870336854344603E-2</v>
       </c>
       <c r="BR103" t="s">
